--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CB5BA-98AA-4C0D-999B-A26588881311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCBDD1-B346-4991-A744-9460ACC78B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Run ID</t>
   </si>
@@ -35,6 +48,12 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>montagnacht</t>
   </si>
 </sst>
 </file>
@@ -66,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,13 +108,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -402,15 +433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,9 +460,15 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
@@ -440,10 +480,16 @@
       <c r="E2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -455,9 +501,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -469,9 +518,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -483,9 +535,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -497,9 +552,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -511,9 +569,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -525,9 +586,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -539,9 +603,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -553,9 +620,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -567,9 +637,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -581,9 +654,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -595,9 +671,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -609,9 +688,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -623,9 +705,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -639,7 +724,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -653,7 +741,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -667,7 +758,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -681,7 +775,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -695,7 +792,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -709,7 +809,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -723,7 +826,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -737,7 +843,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -751,7 +860,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -765,7 +877,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -779,7 +894,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -793,7 +911,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -807,7 +928,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -821,7 +945,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -835,7 +962,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -849,7 +979,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -863,7 +996,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
       </c>
       <c r="C33">
         <v>1</v>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCBDD1-B346-4991-A744-9460ACC78B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55451B6-1376-4A86-9890-239A42B5DF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>0.1</v>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>0.1</v>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>0.1</v>
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <v>0.1</v>
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <v>0.11</v>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11">
         <v>0.11</v>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12">
         <v>0.11</v>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>0.11</v>
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>0.11</v>
@@ -696,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D15">
         <v>0.11</v>
@@ -713,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16">
         <v>0.11</v>
@@ -730,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17">
         <v>0.11</v>
@@ -747,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D18">
         <v>0.12</v>
@@ -764,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D19">
         <v>0.12</v>
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20">
         <v>0.12</v>
@@ -798,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D21">
         <v>0.12</v>
@@ -815,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D22">
         <v>0.12</v>
@@ -832,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D23">
         <v>0.12</v>
@@ -849,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24">
         <v>0.12</v>
@@ -866,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25">
         <v>0.12</v>
@@ -883,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D26">
         <v>0.12</v>
@@ -900,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D27">
         <v>0.13</v>
@@ -917,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D28">
         <v>0.13</v>
@@ -934,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D29">
         <v>0.13</v>
@@ -951,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D30">
         <v>0.13</v>
@@ -968,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D31">
         <v>0.13</v>
@@ -985,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D32">
         <v>0.13</v>
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D33">
         <v>0.13</v>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55451B6-1376-4A86-9890-239A42B5DF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CADFD-F8F0-4E9C-B6A3-5878EA521793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Run ID</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>montagnacht</t>
+  </si>
+  <si>
+    <t>dienstagmorgen</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,7 +997,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1009,6 +1012,361 @@
       </c>
       <c r="E33">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>-3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CADFD-F8F0-4E9C-B6A3-5878EA521793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC0A37-BF9B-464C-BF07-2C6A1795077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Run ID</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>dienstagmorgen</t>
+  </si>
+  <si>
+    <t>nur 25 funktioniert?</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,6 +506,9 @@
       <c r="E3">
         <v>0.03</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -1022,7 +1028,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>0.02</v>
       </c>
       <c r="G34" t="s">
         <v>7</v>
@@ -1036,7 +1048,13 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>0.03</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1047,7 +1065,13 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1058,7 +1082,13 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1069,7 +1099,13 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1080,29 +1116,47 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>0.08</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <v>0.09</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1113,7 +1167,13 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>0.11</v>
+      </c>
+      <c r="E42">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1124,7 +1184,13 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>0.11</v>
+      </c>
+      <c r="E43">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1135,7 +1201,13 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D44">
+        <v>0.11</v>
+      </c>
+      <c r="E44">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1146,54 +1218,84 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>0.11</v>
+      </c>
+      <c r="E45">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
       <c r="C46">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>0.11</v>
+      </c>
+      <c r="E46">
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>14</v>
       </c>
       <c r="C47">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>0.11</v>
+      </c>
+      <c r="E47">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <v>15</v>
       </c>
       <c r="C48">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <v>0.11</v>
+      </c>
+      <c r="E48">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>16</v>
       </c>
       <c r="C49">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <v>0.11</v>
+      </c>
+      <c r="E49">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1201,10 +1303,16 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D50">
+        <v>0.12</v>
+      </c>
+      <c r="E50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1212,147 +1320,189 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>0.12</v>
+      </c>
+      <c r="E51">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>19</v>
       </c>
       <c r="C52">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D52">
+        <v>0.12</v>
+      </c>
+      <c r="E52">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
       <c r="C53">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D53">
+        <v>0.12</v>
+      </c>
+      <c r="E53">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>21</v>
       </c>
       <c r="C54">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>0.12</v>
+      </c>
+      <c r="E54">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>22</v>
       </c>
       <c r="C55">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D55">
+        <v>0.12</v>
+      </c>
+      <c r="E55">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>23</v>
       </c>
       <c r="C56">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D56">
+        <v>0.12</v>
+      </c>
+      <c r="E56">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>24</v>
       </c>
       <c r="C57">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="D57">
+        <v>0.12</v>
+      </c>
+      <c r="E57">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B58">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>26</v>
-      </c>
-      <c r="C59">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>28</v>
-      </c>
       <c r="C61">
         <v>-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>-3</v>
@@ -1360,12 +1510,276 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>23</v>
+      </c>
+      <c r="C80">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>4</v>
       </c>
-      <c r="B65">
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
         <v>32</v>
       </c>
-      <c r="C65">
+      <c r="C89">
         <v>-3</v>
       </c>
     </row>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC0A37-BF9B-464C-BF07-2C6A1795077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F507E-2C56-4F5D-ADD6-FADC4DBC55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Run ID</t>
   </si>
@@ -60,6 +60,33 @@
   </si>
   <si>
     <t>nur 25 funktioniert?</t>
+  </si>
+  <si>
+    <t>SKR</t>
+  </si>
+  <si>
+    <t>43739545.11</t>
+  </si>
+  <si>
+    <t>10358604.24</t>
+  </si>
+  <si>
+    <t>19001744.76</t>
+  </si>
+  <si>
+    <t>39743878.03</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.12', '0.105', '0.04', '0.98', '1', '1', '[43739545.11213058]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.085', '0.06', '0.98', '1', '1', '[10358604.24334391]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.095', '0.02', '0.98', '1', '1', '[19001744.75994373]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.11', '0.02', '0.98', '1', '1', '[39743878.03483348]']</t>
   </si>
 </sst>
 </file>
@@ -91,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,16 +150,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -439,18 +484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="64.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,11 +514,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -486,11 +539,11 @@
       <c r="E2">
         <v>0.02</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -506,11 +559,11 @@
       <c r="E3">
         <v>0.03</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -527,7 +580,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -544,7 +597,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -561,7 +614,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -578,7 +631,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -595,7 +648,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -612,7 +665,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -629,7 +682,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -646,7 +699,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -663,7 +716,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -680,7 +733,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -697,7 +750,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -714,7 +767,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -731,7 +784,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -748,7 +801,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -764,8 +817,9 @@
       <c r="E18">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -782,7 +836,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -799,7 +853,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -816,7 +870,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -833,7 +887,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -850,7 +904,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -867,7 +921,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -884,7 +938,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -900,8 +954,15 @@
       <c r="E26">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -918,7 +979,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -935,7 +996,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -952,7 +1013,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -969,7 +1030,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -985,8 +1046,15 @@
       <c r="E31">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1002,8 +1070,15 @@
       <c r="E32">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1019,8 +1094,15 @@
       <c r="E33">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1036,11 +1118,11 @@
       <c r="E34">
         <v>0.02</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1057,7 +1139,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1074,7 +1156,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1091,7 +1173,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1108,7 +1190,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1125,7 +1207,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1142,7 +1224,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1159,7 +1241,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1176,7 +1258,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1193,7 +1275,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1210,7 +1292,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1227,7 +1309,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1244,7 +1326,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1261,7 +1343,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1439,7 +1521,13 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>0.13</v>
+      </c>
+      <c r="E58">
+        <v>0.12</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1450,7 +1538,13 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="D59">
+        <v>0.13</v>
+      </c>
+      <c r="E59">
+        <v>0.125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1463,6 +1557,12 @@
       <c r="C60">
         <v>-3</v>
       </c>
+      <c r="D60">
+        <v>0.125</v>
+      </c>
+      <c r="E60">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
@@ -1474,6 +1574,12 @@
       <c r="C61">
         <v>-3</v>
       </c>
+      <c r="D61">
+        <v>0.125</v>
+      </c>
+      <c r="E61">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
@@ -1485,6 +1591,12 @@
       <c r="C62">
         <v>-3</v>
       </c>
+      <c r="D62">
+        <v>0.125</v>
+      </c>
+      <c r="E62">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
@@ -1496,6 +1608,12 @@
       <c r="C63">
         <v>-3</v>
       </c>
+      <c r="D63">
+        <v>0.125</v>
+      </c>
+      <c r="E63">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
@@ -1507,8 +1625,14 @@
       <c r="C64">
         <v>-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>0.125</v>
+      </c>
+      <c r="E64">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5</v>
       </c>
@@ -1518,10 +1642,16 @@
       <c r="C65">
         <v>-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -1529,10 +1659,16 @@
       <c r="C66">
         <v>-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E66">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1540,10 +1676,16 @@
       <c r="C67">
         <v>-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E67">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>11</v>
@@ -1551,10 +1693,16 @@
       <c r="C68">
         <v>-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E68">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B69">
         <v>12</v>
@@ -1562,10 +1710,16 @@
       <c r="C69">
         <v>-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E69">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -1573,10 +1727,16 @@
       <c r="C70">
         <v>-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -1584,10 +1744,16 @@
       <c r="C71">
         <v>-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E71">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B72">
         <v>15</v>
@@ -1595,10 +1761,16 @@
       <c r="C72">
         <v>-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E72">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B73">
         <v>16</v>
@@ -1606,10 +1778,16 @@
       <c r="C73">
         <v>-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>0.155</v>
+      </c>
+      <c r="E73">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B74">
         <v>17</v>
@@ -1617,10 +1795,16 @@
       <c r="C74">
         <v>-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>0.155</v>
+      </c>
+      <c r="E74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>18</v>
@@ -1628,10 +1812,16 @@
       <c r="C75">
         <v>-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>0.155</v>
+      </c>
+      <c r="E75">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B76">
         <v>19</v>
@@ -1639,10 +1829,16 @@
       <c r="C76">
         <v>-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>0.155</v>
+      </c>
+      <c r="E76">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>20</v>
@@ -1650,10 +1846,16 @@
       <c r="C77">
         <v>-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>0.155</v>
+      </c>
+      <c r="E77">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>21</v>
@@ -1661,10 +1863,16 @@
       <c r="C78">
         <v>-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E78">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <v>22</v>
@@ -1672,10 +1880,16 @@
       <c r="C79">
         <v>-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E79">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B80">
         <v>23</v>
@@ -1683,10 +1897,16 @@
       <c r="C80">
         <v>-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E80">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B81">
         <v>24</v>
@@ -1694,10 +1914,16 @@
       <c r="C81">
         <v>-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E81">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>25</v>
@@ -1705,10 +1931,16 @@
       <c r="C82">
         <v>-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E82">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -1716,10 +1948,16 @@
       <c r="C83">
         <v>-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E83">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>27</v>
@@ -1727,10 +1965,16 @@
       <c r="C84">
         <v>-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>28</v>
@@ -1738,10 +1982,16 @@
       <c r="C85">
         <v>-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E85">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B86">
         <v>29</v>
@@ -1749,10 +1999,16 @@
       <c r="C86">
         <v>-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87">
         <v>30</v>
@@ -1760,10 +2016,16 @@
       <c r="C87">
         <v>-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E87">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <v>31</v>
@@ -1771,16 +2033,68 @@
       <c r="C88">
         <v>-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E88">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>32</v>
       </c>
       <c r="C89">
         <v>-3</v>
+      </c>
+      <c r="D89">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F507E-2C56-4F5D-ADD6-FADC4DBC55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AECA4F-1A6D-46FC-B42F-ECFA5144D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -174,10 +174,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -486,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,8 +514,8 @@
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1555,13 +1552,13 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D60">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E60">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1572,13 +1569,13 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D61">
-        <v>0.125</v>
+        <v>0.11</v>
       </c>
       <c r="E61">
-        <v>7.0000000000000007E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1640,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D65">
-        <v>0.13500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E65">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1861,13 +1858,13 @@
         <v>21</v>
       </c>
       <c r="C78">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D78">
-        <v>0.16500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E78">
-        <v>0.09</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AECA4F-1A6D-46FC-B42F-ECFA5144D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F08A6A-3FD8-4DFE-814B-F87DDD9D02E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Run ID</t>
   </si>
@@ -87,6 +87,39 @@
   </si>
   <si>
     <t>['1000000000.0', '0.13', '0.11', '0.02', '0.98', '1', '1', '[39743878.03483348]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.1', '0.06', '0.02', '0.98', '1', '1', '[1124217.7522865]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.1', '0.08', '0.04', '0.98', '1', '1', '[21686397.60012088]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.1', '0.09', '0.04', '0.98', '1', '1', '[37829581.42643747]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.11', '0.065', '0.06', '0.06', '1', '1', '[88665.89094052]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.11', '0.075', '0.06', '0.98', '1', '1', '[10937284.01753473]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.11', '0.085', '0.04', '0.98', '1', '1', '[21835719.92460229]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.11', '0.095', '0.04', '0.98', '1', '1', '[35086121.70104157]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.12', '0.075', '0.06', '0.98', '1', '1', '[3627593.60927754]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.12', '0.085', '0.04', '0.98', '1', '1', '[16363177.18720264]']</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>nicht gelaufen</t>
   </si>
 </sst>
 </file>
@@ -481,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,6 +569,9 @@
       <c r="E2">
         <v>0.02</v>
       </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
@@ -556,6 +592,9 @@
       <c r="E3">
         <v>0.03</v>
       </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
@@ -576,6 +615,9 @@
       <c r="E4">
         <v>0.04</v>
       </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -593,6 +635,9 @@
       <c r="E5">
         <v>0.05</v>
       </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -610,6 +655,9 @@
       <c r="E6">
         <v>0.06</v>
       </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -627,6 +675,9 @@
       <c r="E7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -644,6 +695,9 @@
       <c r="E8">
         <v>0.08</v>
       </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -661,6 +715,9 @@
       <c r="E9">
         <v>0.09</v>
       </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -678,6 +735,9 @@
       <c r="E10">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -695,6 +755,9 @@
       <c r="E11">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -712,6 +775,9 @@
       <c r="E12">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -729,6 +795,9 @@
       <c r="E13">
         <v>5.5E-2</v>
       </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -746,6 +815,9 @@
       <c r="E14">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -763,6 +835,9 @@
       <c r="E15">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -780,6 +855,9 @@
       <c r="E16">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -797,6 +875,9 @@
       <c r="E17">
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -814,6 +895,9 @@
       <c r="E18">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -832,6 +916,9 @@
       <c r="E19">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -849,6 +936,9 @@
       <c r="E20">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -866,6 +956,9 @@
       <c r="E21">
         <v>5.5E-2</v>
       </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -883,6 +976,9 @@
       <c r="E22">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -900,6 +996,9 @@
       <c r="E23">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -917,6 +1016,9 @@
       <c r="E24">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -934,6 +1036,9 @@
       <c r="E25">
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -975,6 +1080,9 @@
       <c r="E27">
         <v>0.03</v>
       </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -992,6 +1100,9 @@
       <c r="E28">
         <v>0.05</v>
       </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1009,6 +1120,9 @@
       <c r="E29">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -1025,6 +1139,9 @@
       </c>
       <c r="E30">
         <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1115,6 +1232,9 @@
       <c r="E34">
         <v>0.02</v>
       </c>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I34" t="s">
         <v>7</v>
       </c>
@@ -1135,6 +1255,9 @@
       <c r="E35">
         <v>0.03</v>
       </c>
+      <c r="F35" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -1152,6 +1275,9 @@
       <c r="E36">
         <v>0.04</v>
       </c>
+      <c r="F36" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
@@ -1169,6 +1295,9 @@
       <c r="E37">
         <v>0.05</v>
       </c>
+      <c r="F37" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -1186,6 +1315,12 @@
       <c r="E38">
         <v>0.06</v>
       </c>
+      <c r="F38">
+        <v>1124217.7522865001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -1203,6 +1338,9 @@
       <c r="E39">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -1220,6 +1358,12 @@
       <c r="E40">
         <v>0.08</v>
       </c>
+      <c r="F40">
+        <v>21686397.60012088</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -1237,6 +1381,12 @@
       <c r="E41">
         <v>0.09</v>
       </c>
+      <c r="F41">
+        <v>37829581.426437467</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -1254,6 +1404,9 @@
       <c r="E42">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
@@ -1271,6 +1424,9 @@
       <c r="E43">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -1288,6 +1444,9 @@
       <c r="E44">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
@@ -1305,6 +1464,9 @@
       <c r="E45">
         <v>5.5E-2</v>
       </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -1322,6 +1484,12 @@
       <c r="E46">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="F46">
+        <v>88665.890940519996</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -1339,6 +1507,12 @@
       <c r="E47">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="F47">
+        <v>10937284.017534729</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -1356,8 +1530,14 @@
       <c r="E48">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>21835719.924602289</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1373,8 +1553,14 @@
       <c r="E49">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>35086121.701041572</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1390,8 +1576,11 @@
       <c r="E50">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1407,8 +1596,11 @@
       <c r="E51">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1424,8 +1616,11 @@
       <c r="E52">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1441,8 +1636,11 @@
       <c r="E53">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1458,8 +1656,11 @@
       <c r="E54">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1475,8 +1676,11 @@
       <c r="E55">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1492,8 +1696,14 @@
       <c r="E56">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>3627593.6092775399</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1509,8 +1719,14 @@
       <c r="E57">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>16363177.18720264</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1527,7 +1743,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1544,7 +1760,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1561,7 +1777,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1578,7 +1794,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1595,7 +1811,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1612,7 +1828,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5</v>
       </c>
@@ -1901,7 +2117,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>7</v>
       </c>
@@ -1918,7 +2134,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8</v>
       </c>
@@ -1935,7 +2151,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>8</v>
       </c>
@@ -1952,7 +2168,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8</v>
       </c>
@@ -1969,7 +2185,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8</v>
       </c>
@@ -1986,7 +2202,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2003,7 +2219,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2020,7 +2236,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2037,7 +2253,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2054,44 +2270,424 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>-6</v>
+      </c>
+      <c r="D90">
+        <v>0.25</v>
+      </c>
+      <c r="E90">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>-6</v>
+      </c>
+      <c r="D91">
+        <v>0.25</v>
+      </c>
+      <c r="E91">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>-6</v>
+      </c>
+      <c r="D92">
+        <v>0.25</v>
+      </c>
+      <c r="E92">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>-6</v>
+      </c>
+      <c r="D93">
+        <v>0.35</v>
+      </c>
+      <c r="E93">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>-6</v>
+      </c>
+      <c r="D94">
+        <v>0.35</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>-6</v>
+      </c>
+      <c r="D95">
+        <v>0.35</v>
+      </c>
+      <c r="E95">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>-6</v>
+      </c>
+      <c r="D96">
+        <v>0.45</v>
+      </c>
+      <c r="E96">
+        <f>D96*H96</f>
+        <v>0.315</v>
+      </c>
+      <c r="H96">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>-6</v>
+      </c>
+      <c r="D97">
+        <v>0.45</v>
+      </c>
+      <c r="E97">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>-6</v>
+      </c>
+      <c r="D98">
+        <v>0.45</v>
+      </c>
+      <c r="E98">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>-6</v>
+      </c>
+      <c r="D99">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E99">
+        <f>D99*H99</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H99">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>-6</v>
+      </c>
+      <c r="D100">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E100">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>-6</v>
+      </c>
+      <c r="D101">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>-6</v>
+      </c>
+      <c r="D102">
+        <v>0.65</v>
+      </c>
+      <c r="E102">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>-6</v>
+      </c>
+      <c r="D103">
+        <v>0.75</v>
+      </c>
+      <c r="E103">
+        <f>D103*H103</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H103">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>-9</v>
+      </c>
+      <c r="D104">
+        <v>0.5</v>
+      </c>
+      <c r="E104">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>-9</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>-9</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+      <c r="E106">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>-9</v>
+      </c>
+      <c r="D107">
+        <v>0.6</v>
+      </c>
+      <c r="E107">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>-9</v>
+      </c>
+      <c r="D108">
+        <v>0.6</v>
+      </c>
+      <c r="E108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>-9</v>
+      </c>
+      <c r="D109">
+        <v>0.6</v>
+      </c>
+      <c r="E109">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>21</v>
+      </c>
+      <c r="C110">
+        <v>-9</v>
+      </c>
+      <c r="D110">
+        <v>0.7</v>
+      </c>
+      <c r="E110">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>-9</v>
+      </c>
+      <c r="D111">
+        <v>0.7</v>
+      </c>
+      <c r="E111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>-9</v>
+      </c>
+      <c r="D112">
+        <v>0.7</v>
+      </c>
+      <c r="E112">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>-9</v>
+      </c>
+      <c r="D113">
+        <v>0.7</v>
+      </c>
+      <c r="E113">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F08A6A-3FD8-4DFE-814B-F87DDD9D02E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464A654-36A5-42B9-9698-5C01C8336C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>Run ID</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>nicht gelaufen</t>
+  </si>
+  <si>
+    <t>läuft hoffentlich 6777853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">läuft 6777850 </t>
+  </si>
+  <si>
+    <t>ab 13:00</t>
+  </si>
+  <si>
+    <t>10 Uhr Donnerstag</t>
+  </si>
+  <si>
+    <t>12 Uhr Donnerstag?</t>
+  </si>
+  <si>
+    <t>kurze runden heute abend</t>
+  </si>
+  <si>
+    <t>batches</t>
   </si>
 </sst>
 </file>
@@ -514,21 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="27.7265625" customWidth="1"/>
-    <col min="7" max="7" width="64.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="27.7265625" customWidth="1"/>
+    <col min="8" max="8" width="64.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,15 +566,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -569,14 +593,17 @@
       <c r="E2">
         <v>0.02</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -592,14 +619,17 @@
       <c r="E3">
         <v>0.03</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -615,11 +645,14 @@
       <c r="E4">
         <v>0.04</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -635,11 +668,14 @@
       <c r="E5">
         <v>0.05</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -655,11 +691,14 @@
       <c r="E6">
         <v>0.06</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -675,11 +714,14 @@
       <c r="E7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -695,11 +737,14 @@
       <c r="E8">
         <v>0.08</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -715,11 +760,14 @@
       <c r="E9">
         <v>0.09</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -735,11 +783,14 @@
       <c r="E10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -755,11 +806,14 @@
       <c r="E11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -775,11 +829,14 @@
       <c r="E12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -795,11 +852,14 @@
       <c r="E13">
         <v>5.5E-2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -815,11 +875,14 @@
       <c r="E14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -835,11 +898,14 @@
       <c r="E15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -855,11 +921,14 @@
       <c r="E16">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -875,11 +944,14 @@
       <c r="E17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -895,12 +967,15 @@
       <c r="E18">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -916,11 +991,14 @@
       <c r="E19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -936,11 +1014,14 @@
       <c r="E20">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -956,11 +1037,14 @@
       <c r="E21">
         <v>5.5E-2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -976,11 +1060,14 @@
       <c r="E22">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -996,11 +1083,14 @@
       <c r="E23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1016,11 +1106,14 @@
       <c r="E24">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1036,11 +1129,14 @@
       <c r="E25">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1056,15 +1152,18 @@
       <c r="E26">
         <v>0.105</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1080,11 +1179,14 @@
       <c r="E27">
         <v>0.03</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1100,11 +1202,14 @@
       <c r="E28">
         <v>0.05</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1120,11 +1225,14 @@
       <c r="E29">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1140,11 +1248,14 @@
       <c r="E30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1160,15 +1271,18 @@
       <c r="E31">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1184,15 +1298,18 @@
       <c r="E32">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1208,15 +1325,18 @@
       <c r="E33">
         <v>0.11</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1232,14 +1352,17 @@
       <c r="E34">
         <v>0.02</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1255,11 +1378,14 @@
       <c r="E35">
         <v>0.03</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1275,11 +1401,14 @@
       <c r="E36">
         <v>0.04</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1295,11 +1424,14 @@
       <c r="E37">
         <v>0.05</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1316,13 +1448,16 @@
         <v>0.06</v>
       </c>
       <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
         <v>1124217.7522865001</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1338,11 +1473,14 @@
       <c r="E39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1359,13 +1497,16 @@
         <v>0.08</v>
       </c>
       <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
         <v>21686397.60012088</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1382,13 +1523,16 @@
         <v>0.09</v>
       </c>
       <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
         <v>37829581.426437467</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1404,11 +1548,14 @@
       <c r="E42">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1424,11 +1571,14 @@
       <c r="E43">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1444,11 +1594,14 @@
       <c r="E44">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1464,11 +1617,14 @@
       <c r="E45">
         <v>5.5E-2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1485,13 +1641,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
         <v>88665.890940519996</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1508,13 +1667,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
         <v>10937284.017534729</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1531,13 +1693,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
         <v>21835719.924602289</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1554,13 +1719,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
         <v>35086121.701041572</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1576,11 +1744,14 @@
       <c r="E50">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1596,11 +1767,14 @@
       <c r="E51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1616,11 +1790,14 @@
       <c r="E52">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1636,11 +1813,14 @@
       <c r="E53">
         <v>5.5E-2</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1656,11 +1836,14 @@
       <c r="E54">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1676,11 +1859,14 @@
       <c r="E55">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1697,13 +1883,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
         <v>3627593.6092775399</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1720,13 +1909,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
         <v>16363177.18720264</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1742,8 +1934,11 @@
       <c r="E58">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1759,8 +1954,11 @@
       <c r="E59">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1776,8 +1974,11 @@
       <c r="E60">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1793,8 +1994,11 @@
       <c r="E61">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1810,8 +2014,11 @@
       <c r="E62">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1827,8 +2034,11 @@
       <c r="E63">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5</v>
       </c>
@@ -1844,8 +2054,11 @@
       <c r="E64">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5</v>
       </c>
@@ -1861,8 +2074,11 @@
       <c r="E65">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1878,8 +2094,11 @@
       <c r="E66">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -1895,8 +2114,11 @@
       <c r="E67">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6</v>
       </c>
@@ -1912,8 +2134,11 @@
       <c r="E68">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6</v>
       </c>
@@ -1929,8 +2154,11 @@
       <c r="E69">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6</v>
       </c>
@@ -1946,8 +2174,11 @@
       <c r="E70">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>6</v>
       </c>
@@ -1963,8 +2194,11 @@
       <c r="E71">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>6</v>
       </c>
@@ -1980,8 +2214,11 @@
       <c r="E72">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>6</v>
       </c>
@@ -1997,8 +2234,11 @@
       <c r="E73">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2014,8 +2254,11 @@
       <c r="E74">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2031,8 +2274,11 @@
       <c r="E75">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7</v>
       </c>
@@ -2048,8 +2294,11 @@
       <c r="E76">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7</v>
       </c>
@@ -2065,8 +2314,11 @@
       <c r="E77">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7</v>
       </c>
@@ -2082,8 +2334,11 @@
       <c r="E78">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7</v>
       </c>
@@ -2099,8 +2354,11 @@
       <c r="E79">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2116,8 +2374,11 @@
       <c r="E80">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>7</v>
       </c>
@@ -2133,8 +2394,11 @@
       <c r="E81">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2150,8 +2414,11 @@
       <c r="E82">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2167,8 +2434,11 @@
       <c r="E83">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2184,8 +2454,11 @@
       <c r="E84">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2201,8 +2474,11 @@
       <c r="E85">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2218,8 +2494,11 @@
       <c r="E86">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2235,8 +2514,11 @@
       <c r="E87">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2252,8 +2534,11 @@
       <c r="E88">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2269,8 +2554,11 @@
       <c r="E89">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -2286,8 +2574,17 @@
       <c r="E90">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>50</v>
+      </c>
+      <c r="J90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
@@ -2303,8 +2600,11 @@
       <c r="E91">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9</v>
       </c>
@@ -2320,8 +2620,11 @@
       <c r="E92">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9</v>
       </c>
@@ -2337,8 +2640,11 @@
       <c r="E93">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9</v>
       </c>
@@ -2354,8 +2660,11 @@
       <c r="E94">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9</v>
       </c>
@@ -2371,8 +2680,11 @@
       <c r="E95">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9</v>
       </c>
@@ -2386,14 +2698,17 @@
         <v>0.45</v>
       </c>
       <c r="E96">
-        <f>D96*H96</f>
+        <f>D96*I96</f>
         <v>0.315</v>
       </c>
-      <c r="H96">
+      <c r="F96">
+        <v>50</v>
+      </c>
+      <c r="I96">
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9</v>
       </c>
@@ -2409,8 +2724,11 @@
       <c r="E97">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2426,8 +2744,11 @@
       <c r="E98">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9</v>
       </c>
@@ -2441,14 +2762,17 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E99">
-        <f>D99*H99</f>
+        <f>D99*I99</f>
         <v>0.38500000000000001</v>
       </c>
-      <c r="H99">
+      <c r="F99">
+        <v>50</v>
+      </c>
+      <c r="I99">
         <v>0.7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9</v>
       </c>
@@ -2464,8 +2788,11 @@
       <c r="E100">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9</v>
       </c>
@@ -2481,8 +2808,11 @@
       <c r="E101">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>10</v>
       </c>
@@ -2498,8 +2828,20 @@
       <c r="E102">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="J102" t="s">
+        <v>30</v>
+      </c>
+      <c r="K102" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>10</v>
       </c>
@@ -2513,14 +2855,17 @@
         <v>0.75</v>
       </c>
       <c r="E103">
-        <f>D103*H103</f>
+        <f>D103*I103</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="H103">
+      <c r="F103">
+        <v>50</v>
+      </c>
+      <c r="I103">
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>10</v>
       </c>
@@ -2536,8 +2881,11 @@
       <c r="E104">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>10</v>
       </c>
@@ -2553,8 +2901,11 @@
       <c r="E105">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>10</v>
       </c>
@@ -2570,8 +2921,11 @@
       <c r="E106">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2587,8 +2941,11 @@
       <c r="E107">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>10</v>
       </c>
@@ -2604,8 +2961,11 @@
       <c r="E108">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>10</v>
       </c>
@@ -2621,8 +2981,11 @@
       <c r="E109">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>10</v>
       </c>
@@ -2638,8 +3001,11 @@
       <c r="E110">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>10</v>
       </c>
@@ -2655,8 +3021,11 @@
       <c r="E111">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>10</v>
       </c>
@@ -2672,8 +3041,11 @@
       <c r="E112">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>10</v>
       </c>
@@ -2688,6 +3060,156 @@
       </c>
       <c r="E113">
         <v>0.65</v>
+      </c>
+      <c r="F113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>-12</v>
+      </c>
+      <c r="D114">
+        <v>0.65</v>
+      </c>
+      <c r="E114">
+        <f>D114*I114</f>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="F114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>0.7</v>
+      </c>
+      <c r="J114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>-12</v>
+      </c>
+      <c r="D115">
+        <v>0.65</v>
+      </c>
+      <c r="E115">
+        <f>D115*I115</f>
+        <v>0.52</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>11</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>-12</v>
+      </c>
+      <c r="D116">
+        <v>0.65</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ref="E115:E119" si="0">D116*I116</f>
+        <v>0.58500000000000008</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="I116">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>-12</v>
+      </c>
+      <c r="D117">
+        <v>0.7</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="0"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>-12</v>
+      </c>
+      <c r="D118">
+        <v>0.7</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="I118">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>-12</v>
+      </c>
+      <c r="D119">
+        <v>0.7</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464A654-36A5-42B9-9698-5C01C8336C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C8904C-F42F-47F0-849F-01E2EC3B6D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3130,7 +3130,7 @@
         <v>0.65</v>
       </c>
       <c r="E116">
-        <f t="shared" ref="E115:E119" si="0">D116*I116</f>
+        <f t="shared" ref="E116:E119" si="0">D116*I116</f>
         <v>0.58500000000000008</v>
       </c>
       <c r="F116">

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C8904C-F42F-47F0-849F-01E2EC3B6D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8AA26-77E3-484B-9D97-DCB7386674BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3212,6 +3212,582 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>-15</v>
+      </c>
+      <c r="D120">
+        <v>0.65</v>
+      </c>
+      <c r="E120">
+        <f>D120*I120</f>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="F120">
+        <v>100</v>
+      </c>
+      <c r="I120">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>13</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>-15</v>
+      </c>
+      <c r="D121">
+        <v>0.65</v>
+      </c>
+      <c r="E121">
+        <f>D121*I121</f>
+        <v>0.52</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="I121">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>-15</v>
+      </c>
+      <c r="D122">
+        <v>0.65</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ref="E122:E125" si="1">D122*I122</f>
+        <v>0.58500000000000008</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>-15</v>
+      </c>
+      <c r="D123">
+        <v>0.7</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="I123">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>-15</v>
+      </c>
+      <c r="D124">
+        <v>0.7</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+      <c r="I124">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>-15</v>
+      </c>
+      <c r="D125">
+        <v>0.7</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="I125">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>-15</v>
+      </c>
+      <c r="D126">
+        <v>0.7</v>
+      </c>
+      <c r="E126">
+        <f>D126*I126</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="I126">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>-18</v>
+      </c>
+      <c r="D127">
+        <v>0.7</v>
+      </c>
+      <c r="E127">
+        <f>D127*I127</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+      <c r="I127">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>-18</v>
+      </c>
+      <c r="D128">
+        <v>0.7</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ref="E128:E131" si="2">D128*I128</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="I128">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>-18</v>
+      </c>
+      <c r="D129">
+        <v>0.7</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="I129">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>14</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>-18</v>
+      </c>
+      <c r="D130">
+        <v>0.75</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F130">
+        <v>100</v>
+      </c>
+      <c r="I130">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>-18</v>
+      </c>
+      <c r="D131">
+        <v>0.75</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="I131">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>15</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>-18</v>
+      </c>
+      <c r="D132">
+        <v>0.75</v>
+      </c>
+      <c r="E132">
+        <f>D132*I132</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>15</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>-21</v>
+      </c>
+      <c r="D133">
+        <v>0.7</v>
+      </c>
+      <c r="E133">
+        <f>D133*I133</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="F133">
+        <v>100</v>
+      </c>
+      <c r="I133">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>-21</v>
+      </c>
+      <c r="D134">
+        <v>0.7</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ref="E134:E138" si="3">D134*I134</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="I134">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135">
+        <v>16</v>
+      </c>
+      <c r="C135">
+        <v>-21</v>
+      </c>
+      <c r="D135">
+        <v>0.7</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="3"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
+      <c r="I135">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136">
+        <v>17</v>
+      </c>
+      <c r="C136">
+        <v>-21</v>
+      </c>
+      <c r="D136">
+        <v>0.75</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+      <c r="I136">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>-21</v>
+      </c>
+      <c r="D137">
+        <v>0.75</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="3"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+      <c r="I137">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>16</v>
+      </c>
+      <c r="B138">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>-21</v>
+      </c>
+      <c r="D138">
+        <v>0.75</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="3"/>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="I138">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>16</v>
+      </c>
+      <c r="B139">
+        <v>20</v>
+      </c>
+      <c r="C139">
+        <v>-21</v>
+      </c>
+      <c r="D139">
+        <v>0.8</v>
+      </c>
+      <c r="E139">
+        <f>D139*I139</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="F139">
+        <v>100</v>
+      </c>
+      <c r="I139">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>16</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>-21</v>
+      </c>
+      <c r="D140">
+        <v>0.8</v>
+      </c>
+      <c r="E140">
+        <f>D140*I140</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="I140">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>16</v>
+      </c>
+      <c r="B141">
+        <v>22</v>
+      </c>
+      <c r="C141">
+        <v>-24</v>
+      </c>
+      <c r="D141">
+        <v>0.7</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ref="E141:E144" si="4">D141*I141</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="F141">
+        <v>100</v>
+      </c>
+      <c r="I141">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>16</v>
+      </c>
+      <c r="B142">
+        <v>23</v>
+      </c>
+      <c r="C142">
+        <v>-24</v>
+      </c>
+      <c r="D142">
+        <v>0.75</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="I142">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143">
+        <v>24</v>
+      </c>
+      <c r="C143">
+        <v>-24</v>
+      </c>
+      <c r="D143">
+        <v>0.8</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>0.76</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+      <c r="I143">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8AA26-77E3-484B-9D97-DCB7386674BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B6C3CE-0C7A-4A47-BA22-5DDE8AD13ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3251,13 +3251,13 @@
       </c>
       <c r="E121">
         <f>D121*I121</f>
-        <v>0.52</v>
+        <v>0.48750000000000004</v>
       </c>
       <c r="F121">
         <v>100</v>
       </c>
       <c r="I121">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -3274,14 +3274,14 @@
         <v>0.65</v>
       </c>
       <c r="E122">
-        <f t="shared" ref="E122:E125" si="1">D122*I122</f>
-        <v>0.58500000000000008</v>
+        <f>D122*I122</f>
+        <v>0.52</v>
       </c>
       <c r="F122">
         <v>100</v>
       </c>
       <c r="I122">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -3295,17 +3295,17 @@
         <v>-15</v>
       </c>
       <c r="D123">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
-        <v>0.48999999999999994</v>
+        <f>D123*I123</f>
+        <v>0.55249999999999999</v>
       </c>
       <c r="F123">
         <v>100</v>
       </c>
       <c r="I123">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -3319,17 +3319,17 @@
         <v>-15</v>
       </c>
       <c r="D124">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
-        <v>0.55999999999999994</v>
+        <f>D124*I124</f>
+        <v>0.58500000000000008</v>
       </c>
       <c r="F124">
         <v>100</v>
       </c>
       <c r="I124">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -3343,17 +3343,17 @@
         <v>-15</v>
       </c>
       <c r="D125">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
+        <f t="shared" ref="E125:E130" si="1">D125*I125</f>
+        <v>0.61749999999999994</v>
       </c>
       <c r="F125">
         <v>100</v>
       </c>
       <c r="I125">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -3370,14 +3370,14 @@
         <v>0.7</v>
       </c>
       <c r="E126">
-        <f>D126*I126</f>
-        <v>0.66499999999999992</v>
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
       </c>
       <c r="F126">
         <v>100</v>
       </c>
       <c r="I126">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -3388,13 +3388,13 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D127">
         <v>0.7</v>
       </c>
       <c r="E127">
-        <f>D127*I127</f>
+        <f t="shared" si="1"/>
         <v>0.52499999999999991</v>
       </c>
       <c r="F127">
@@ -3412,20 +3412,20 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D128">
         <v>0.7</v>
       </c>
       <c r="E128">
-        <f t="shared" ref="E128:E131" si="2">D128*I128</f>
-        <v>0.59499999999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.55999999999999994</v>
       </c>
       <c r="F128">
         <v>100</v>
       </c>
       <c r="I128">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -3436,20 +3436,20 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D129">
         <v>0.7</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
-        <v>0.66499999999999992</v>
+        <f t="shared" si="1"/>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F129">
         <v>100</v>
       </c>
       <c r="I129">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -3460,20 +3460,20 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D130">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E130">
-        <f t="shared" si="2"/>
-        <v>0.5625</v>
+        <f t="shared" si="1"/>
+        <v>0.63</v>
       </c>
       <c r="F130">
         <v>100</v>
       </c>
       <c r="I130">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -3484,20 +3484,20 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="D131">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E131">
-        <f t="shared" si="2"/>
-        <v>0.63749999999999996</v>
+        <f>D131*I131</f>
+        <v>0.66499999999999992</v>
       </c>
       <c r="F131">
         <v>100</v>
       </c>
       <c r="I131">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -3511,17 +3511,17 @@
         <v>-18</v>
       </c>
       <c r="D132">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E132">
         <f>D132*I132</f>
-        <v>0.71249999999999991</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="F132">
         <v>100</v>
       </c>
       <c r="I132">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
@@ -3532,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="C133">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D133">
         <v>0.7</v>
@@ -3556,20 +3556,20 @@
         <v>15</v>
       </c>
       <c r="C134">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D134">
         <v>0.7</v>
       </c>
       <c r="E134">
-        <f t="shared" ref="E134:E138" si="3">D134*I134</f>
-        <v>0.59499999999999997</v>
+        <f>D134*I134</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="F134">
         <v>100</v>
       </c>
       <c r="I134">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
@@ -3580,20 +3580,20 @@
         <v>16</v>
       </c>
       <c r="C135">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D135">
         <v>0.7</v>
       </c>
       <c r="E135">
-        <f t="shared" si="3"/>
-        <v>0.66499999999999992</v>
+        <f t="shared" ref="E135:E142" si="2">D135*I135</f>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F135">
         <v>100</v>
       </c>
       <c r="I135">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
@@ -3604,20 +3604,20 @@
         <v>17</v>
       </c>
       <c r="C136">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D136">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E136">
-        <f t="shared" si="3"/>
-        <v>0.5625</v>
+        <f t="shared" si="2"/>
+        <v>0.63</v>
       </c>
       <c r="F136">
         <v>100</v>
       </c>
       <c r="I136">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
@@ -3628,20 +3628,20 @@
         <v>18</v>
       </c>
       <c r="C137">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D137">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E137">
-        <f t="shared" si="3"/>
-        <v>0.63749999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.66499999999999992</v>
       </c>
       <c r="F137">
         <v>100</v>
       </c>
       <c r="I137">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
@@ -3652,20 +3652,20 @@
         <v>19</v>
       </c>
       <c r="C138">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D138">
         <v>0.75</v>
       </c>
       <c r="E138">
-        <f t="shared" si="3"/>
-        <v>0.71249999999999991</v>
+        <f>D138*I138</f>
+        <v>0.52499999999999991</v>
       </c>
       <c r="F138">
         <v>100</v>
       </c>
       <c r="I138">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
@@ -3676,20 +3676,20 @@
         <v>20</v>
       </c>
       <c r="C139">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D139">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E139">
-        <f>D139*I139</f>
-        <v>0.64000000000000012</v>
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
       </c>
       <c r="F139">
         <v>100</v>
       </c>
       <c r="I139">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -3700,20 +3700,20 @@
         <v>21</v>
       </c>
       <c r="C140">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="D140">
+        <v>0.75</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="I140">
         <v>0.8</v>
-      </c>
-      <c r="E140">
-        <f>D140*I140</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F140">
-        <v>100</v>
-      </c>
-      <c r="I140">
-        <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -3724,20 +3724,20 @@
         <v>22</v>
       </c>
       <c r="C141">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D141">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="E141">
-        <f t="shared" ref="E141:E144" si="4">D141*I141</f>
-        <v>0.52499999999999991</v>
+        <f t="shared" si="2"/>
+        <v>0.63749999999999996</v>
       </c>
       <c r="F141">
         <v>100</v>
       </c>
       <c r="I141">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
@@ -3748,20 +3748,20 @@
         <v>23</v>
       </c>
       <c r="C142">
-        <v>-24</v>
+        <v>-18</v>
       </c>
       <c r="D142">
         <v>0.75</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
-        <v>0.63749999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F142">
         <v>100</v>
       </c>
       <c r="I142">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
@@ -3772,19 +3772,307 @@
         <v>24</v>
       </c>
       <c r="C143">
+        <v>-18</v>
+      </c>
+      <c r="D143">
+        <v>0.75</v>
+      </c>
+      <c r="E143">
+        <f>D143*I143</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+      <c r="I143">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>-21</v>
+      </c>
+      <c r="D144">
+        <v>0.7</v>
+      </c>
+      <c r="E144">
+        <f>D144*I144</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="F144">
+        <v>100</v>
+      </c>
+      <c r="I144">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>17</v>
+      </c>
+      <c r="B145">
+        <v>26</v>
+      </c>
+      <c r="C145">
+        <v>-21</v>
+      </c>
+      <c r="D145">
+        <v>0.7</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ref="E145:E150" si="3">D145*I145</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F145">
+        <v>100</v>
+      </c>
+      <c r="I145">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>27</v>
+      </c>
+      <c r="C146">
+        <v>-21</v>
+      </c>
+      <c r="D146">
+        <v>0.7</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="3"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+      <c r="I146">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>28</v>
+      </c>
+      <c r="C147">
+        <v>-21</v>
+      </c>
+      <c r="D147">
+        <v>0.75</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F147">
+        <v>100</v>
+      </c>
+      <c r="I147">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>29</v>
+      </c>
+      <c r="C148">
+        <v>-21</v>
+      </c>
+      <c r="D148">
+        <v>0.75</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="3"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="I148">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>-21</v>
+      </c>
+      <c r="D149">
+        <v>0.75</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="3"/>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+      <c r="I149">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>31</v>
+      </c>
+      <c r="C150">
+        <v>-21</v>
+      </c>
+      <c r="D150">
+        <v>0.8</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="I150">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>18</v>
+      </c>
+      <c r="B151">
+        <v>32</v>
+      </c>
+      <c r="C151">
+        <v>-21</v>
+      </c>
+      <c r="D151">
+        <v>0.8</v>
+      </c>
+      <c r="E151">
+        <f>D151*I151</f>
+        <v>0.68</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="I151">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>33</v>
+      </c>
+      <c r="C152">
+        <v>-21</v>
+      </c>
+      <c r="D152">
+        <v>0.8</v>
+      </c>
+      <c r="E152">
+        <f>D152*I152</f>
+        <v>0.76</v>
+      </c>
+      <c r="F152">
+        <v>100</v>
+      </c>
+      <c r="I152">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>18</v>
+      </c>
+      <c r="B153">
+        <v>34</v>
+      </c>
+      <c r="C153">
         <v>-24</v>
       </c>
-      <c r="D143">
+      <c r="D153">
+        <v>0.7</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ref="E153:E155" si="4">D153*I153</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="F153">
+        <v>100</v>
+      </c>
+      <c r="I153">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>35</v>
+      </c>
+      <c r="C154">
+        <v>-24</v>
+      </c>
+      <c r="D154">
+        <v>0.75</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="4"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F154">
+        <v>100</v>
+      </c>
+      <c r="I154">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>18</v>
+      </c>
+      <c r="B155">
+        <v>36</v>
+      </c>
+      <c r="C155">
+        <v>-24</v>
+      </c>
+      <c r="D155">
         <v>0.8</v>
       </c>
-      <c r="E143">
+      <c r="E155">
         <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
-      <c r="F143">
-        <v>100</v>
-      </c>
-      <c r="I143">
+      <c r="F155">
+        <v>100</v>
+      </c>
+      <c r="I155">
         <v>0.95</v>
       </c>
     </row>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B6C3CE-0C7A-4A47-BA22-5DDE8AD13ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B96804B-3596-49A4-BBBD-F055444E8ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4018,7 +4018,7 @@
         <v>0.7</v>
       </c>
       <c r="E153">
-        <f t="shared" ref="E153:E155" si="4">D153*I153</f>
+        <f t="shared" ref="E153:E161" si="4">D153*I153</f>
         <v>0.52499999999999991</v>
       </c>
       <c r="F153">
@@ -4074,6 +4074,150 @@
       </c>
       <c r="I155">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>19</v>
+      </c>
+      <c r="B156">
+        <v>37</v>
+      </c>
+      <c r="C156">
+        <v>-24</v>
+      </c>
+      <c r="D156">
+        <v>0.7</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="4"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+      <c r="I156">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>19</v>
+      </c>
+      <c r="B157">
+        <v>38</v>
+      </c>
+      <c r="C157">
+        <v>-24</v>
+      </c>
+      <c r="D157">
+        <v>0.7</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="4"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F157">
+        <v>100</v>
+      </c>
+      <c r="I157">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>19</v>
+      </c>
+      <c r="B158">
+        <v>39</v>
+      </c>
+      <c r="C158">
+        <v>-24</v>
+      </c>
+      <c r="D158">
+        <v>0.75</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F158">
+        <v>100</v>
+      </c>
+      <c r="I158">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>40</v>
+      </c>
+      <c r="C159">
+        <v>-24</v>
+      </c>
+      <c r="D159">
+        <v>0.75</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="4"/>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="F159">
+        <v>100</v>
+      </c>
+      <c r="I159">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>41</v>
+      </c>
+      <c r="C160">
+        <v>-24</v>
+      </c>
+      <c r="D160">
+        <v>0.8</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F160">
+        <v>100</v>
+      </c>
+      <c r="I160">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>42</v>
+      </c>
+      <c r="C161">
+        <v>-24</v>
+      </c>
+      <c r="D161">
+        <v>0.8</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="F161">
+        <v>100</v>
+      </c>
+      <c r="I161">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B96804B-3596-49A4-BBBD-F055444E8ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB2579-7E0F-4B36-A379-61F08C77221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>Run ID</t>
   </si>
@@ -141,6 +141,177 @@
   </si>
   <si>
     <t>batches</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.53', '0.02', '0.98', '1', '1', '[52521578.30066847]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.6000000000000001', '0.02', '0.98', '1', '1', '[55867214.24269255]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.5', '0.4', '0.04', '0.98', '1', '1', '[16650520.47955572]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.5', '0.43', '0.04', '0.98', '1', '1', '[23946919.91278111]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.5', '0.47', '0.02', '0.98', '1', '1', '[37945515.36065637]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.6', '0.45', '0.04', '0.98', '1', '1', '[14436701.63077375]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.6', '0.5', '0.04', '0.98', '1', '1', '[26723788.4047694]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.6', '0.55', '0.04', '0.98', '1', '1', '[40568469.93202251]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.45', '0.22', '0.88', '1', '1', '[5282160.25033421]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5', '0.04', '0.98', '1', '1', '[16007004.12330391]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.6', '0.04', '0.98', '1', '1', '[32932433.48547973]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.65', '0.02', '0.98', '1', '1', '[48726479.32064204]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.45499999999999996', '0.1', '0.98', '1', '1', '[4773862.29924091]']</t>
+  </si>
+  <si>
+    <t>['100000000.0', '0.65', '0.52', '0.04', '0.98', '1', '1', '[11186619.66612788]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.5850000000000001', '0.04', '0.98', '1', '1', '[19722118.82182726]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.48999999999999994', '0.02', '0.98', '1', '1', '[7154886.40091644]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5599999999999999', '0.04', '0.98', '1', '1', '[12290407.62209759]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.63', '0.04', '0.98', '1', '1', '[21215469.4002695]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.12', '0.04', '0.98', '1', '1', '[54931760.20115897]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.125', '0.04', '0.98', '1', '1', '[65388060.12565371]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.1', '0.07', '0.46', '0.8200000000000001', '1', '1', '[7598060.74079529]']</t>
+  </si>
+  <si>
+    <t>-inf</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.125', '0.09', '0.04', '0.98', '1', '1', '[12296567.47729424]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.125', '0.11', '0.06', '0.98', '1', '1', '[24961736.89426415]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.125', '0.12', '0.1', '0.98', '1', '1', '[38601956.33958291]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.135', '0.09', '0.06', '0.98', '1', '1', '[7579028.55732769]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.135', '0.11', '0.04', '0.98', '1', '1', '[20258635.49670454]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.135', '0.13', '0.04', '0.98', '1', '1', '[43017473.64714245]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.145', '0.1', '0.04', '0.98', '1', '1', '[11372293.31608506]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.145', '0.12', '0.04', '0.98', '1', '1', '[22134264.92369199]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.145', '0.14', '0.04', '0.98', '1', '1', '[49815817.51642198]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.12', '0.04', '0.98', '1', '1', '[20184566.97762575]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.14', '0.04', '0.98', '1', '1', '[40989846.14691691]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.15', '0.04', '0.98', '1', '1', '[52868367.43918516]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.12', '0.095', '0.04', '0.98', '1', '1', '[23849548.1798319]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.11', '0.06', '0.98', '1', '1', '[7717394.35668145]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.13', '0.08', '0.98', '1', '1', '[24716707.52396602]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.145', '0.04', '0.98', '1', '1', '[35110669.76462536]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.155', '0.04', '0.98', '1', '1', '[46993115.25488467]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.16', '0.04', '0.98', '1', '1', '[55675055.6441343]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.11', '0.06', '0.98', '1', '1', '[6228763.35906148]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.13', '0.04', '0.98', '1', '1', '[20373714.0580493]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.145', '0.34', '0.86', '1', '1', '[20182300.27881454]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.155', '0.04', '0.98', '1', '1', '[39590795.68885855]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.16', '0.04', '0.98', '1', '1', '[44205674.55451533]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.215', '0.04', '0.98', '1', '1', '[25404821.06687878]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.25', '0.23', '0.12000000000000001', '0.98', '1', '1', '[31284356.92920658]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.245', '0.02', '0.98', '1', '1', '[42090161.9370113]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.35', '0.25', '0.04', '0.98', '1', '1', '[14850928.62433256]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.35', '0.3', '0.04', '0.98', '1', '1', '[34080054.7776496]']</t>
+  </si>
+  <si>
+    <t>['100000000.0', '0.35', '0.33', '0.04', '0.98', '1', '1', '[51957078.61801958]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.45', '0.315', '0.04', '0.98', '1', '1', '[18948366.46626636]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.45', '0.38', '0.04', '0.98', '1', '1', '[41661096.52478246]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.45', '0.42', '0.04', '0.98', '1', '1', '[62552222.34532392]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.55', '0.385', '0.02', '0.98', '1', '1', '[24621765.95779729]']</t>
+  </si>
+  <si>
+    <t>['100000000.0', '0.55', '0.44', '0.06', '0.98', '1', '1', '[36457022.45739125]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.55', '0.5', '0.04', '0.98', '1', '1', '[69725255.78241989]']</t>
   </si>
 </sst>
 </file>
@@ -535,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1937,6 +2108,12 @@
       <c r="F58">
         <v>50</v>
       </c>
+      <c r="G58">
+        <v>54931760.201158971</v>
+      </c>
+      <c r="H58" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
@@ -1957,6 +2134,12 @@
       <c r="F59">
         <v>50</v>
       </c>
+      <c r="G59">
+        <v>65388060.125653706</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
@@ -1977,6 +2160,12 @@
       <c r="F60">
         <v>50</v>
       </c>
+      <c r="G60">
+        <v>7598060.7407952901</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
@@ -1997,6 +2186,9 @@
       <c r="F61">
         <v>50</v>
       </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
@@ -2017,6 +2209,12 @@
       <c r="F62">
         <v>50</v>
       </c>
+      <c r="G62">
+        <v>12296567.47729424</v>
+      </c>
+      <c r="H62" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
@@ -2037,6 +2235,12 @@
       <c r="F63">
         <v>50</v>
       </c>
+      <c r="G63">
+        <v>24961736.89426415</v>
+      </c>
+      <c r="H63" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
@@ -2057,8 +2261,14 @@
       <c r="F64">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>38601956.339582913</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5</v>
       </c>
@@ -2077,8 +2287,11 @@
       <c r="F65">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6</v>
       </c>
@@ -2097,8 +2310,14 @@
       <c r="F66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>7579028.5573276896</v>
+      </c>
+      <c r="H66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2117,8 +2336,14 @@
       <c r="F67">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>20258635.496704541</v>
+      </c>
+      <c r="H67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6</v>
       </c>
@@ -2137,8 +2362,14 @@
       <c r="F68">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>43017473.647142448</v>
+      </c>
+      <c r="H68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2157,8 +2388,11 @@
       <c r="F69">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6</v>
       </c>
@@ -2177,8 +2411,14 @@
       <c r="F70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>11372293.316085059</v>
+      </c>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>6</v>
       </c>
@@ -2197,8 +2437,14 @@
       <c r="F71">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>22134264.923691992</v>
+      </c>
+      <c r="H71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2217,8 +2463,14 @@
       <c r="F72">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>49815817.516421981</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2237,8 +2489,11 @@
       <c r="F73">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2257,8 +2512,14 @@
       <c r="F74">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>20184566.97762575</v>
+      </c>
+      <c r="H74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2277,8 +2538,14 @@
       <c r="F75">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>40989846.146916911</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7</v>
       </c>
@@ -2297,8 +2564,14 @@
       <c r="F76">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>52868367.439185157</v>
+      </c>
+      <c r="H76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7</v>
       </c>
@@ -2317,8 +2590,14 @@
       <c r="F77">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>23849548.1798319</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7</v>
       </c>
@@ -2337,8 +2616,14 @@
       <c r="F78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>7717394.3566814503</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7</v>
       </c>
@@ -2357,8 +2642,14 @@
       <c r="F79">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>24716707.523966022</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2376,6 +2667,12 @@
       </c>
       <c r="F80">
         <v>50</v>
+      </c>
+      <c r="G80">
+        <v>35110669.764625363</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -2397,6 +2694,12 @@
       <c r="F81">
         <v>50</v>
       </c>
+      <c r="G81">
+        <v>46993115.254884668</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
@@ -2417,6 +2720,12 @@
       <c r="F82">
         <v>50</v>
       </c>
+      <c r="G82">
+        <v>55675055.644134298</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
@@ -2437,6 +2746,9 @@
       <c r="F83">
         <v>50</v>
       </c>
+      <c r="G83" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
@@ -2457,6 +2769,12 @@
       <c r="F84">
         <v>50</v>
       </c>
+      <c r="G84">
+        <v>6228763.3590614796</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
@@ -2477,6 +2795,12 @@
       <c r="F85">
         <v>50</v>
       </c>
+      <c r="G85">
+        <v>20373714.058049299</v>
+      </c>
+      <c r="H85" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
@@ -2497,6 +2821,12 @@
       <c r="F86">
         <v>50</v>
       </c>
+      <c r="G86">
+        <v>20182300.278814539</v>
+      </c>
+      <c r="H86" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
@@ -2517,6 +2847,12 @@
       <c r="F87">
         <v>50</v>
       </c>
+      <c r="G87">
+        <v>39590795.688858546</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
@@ -2537,6 +2873,12 @@
       <c r="F88">
         <v>50</v>
       </c>
+      <c r="G88">
+        <v>44205674.554515332</v>
+      </c>
+      <c r="H88" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
@@ -2557,6 +2899,12 @@
       <c r="F89">
         <v>50</v>
       </c>
+      <c r="G89">
+        <v>25404821.066878781</v>
+      </c>
+      <c r="H89" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
@@ -2577,6 +2925,12 @@
       <c r="F90">
         <v>50</v>
       </c>
+      <c r="G90">
+        <v>25404821.066878781</v>
+      </c>
+      <c r="H90" t="s">
+        <v>81</v>
+      </c>
       <c r="J90" t="s">
         <v>29</v>
       </c>
@@ -2603,6 +2957,12 @@
       <c r="F91">
         <v>50</v>
       </c>
+      <c r="G91">
+        <v>31284356.92920658</v>
+      </c>
+      <c r="H91" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
@@ -2623,6 +2983,12 @@
       <c r="F92">
         <v>50</v>
       </c>
+      <c r="G92">
+        <v>42090161.937011302</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
@@ -2643,6 +3009,12 @@
       <c r="F93">
         <v>50</v>
       </c>
+      <c r="G93">
+        <v>14850928.62433256</v>
+      </c>
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
@@ -2663,6 +3035,12 @@
       <c r="F94">
         <v>50</v>
       </c>
+      <c r="G94">
+        <v>34080054.777649596</v>
+      </c>
+      <c r="H94" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
@@ -2683,6 +3061,12 @@
       <c r="F95">
         <v>50</v>
       </c>
+      <c r="G95">
+        <v>51957078.618019581</v>
+      </c>
+      <c r="H95" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
@@ -2704,6 +3088,12 @@
       <c r="F96">
         <v>50</v>
       </c>
+      <c r="G96">
+        <v>18948366.46626636</v>
+      </c>
+      <c r="H96" t="s">
+        <v>87</v>
+      </c>
       <c r="I96">
         <v>0.7</v>
       </c>
@@ -2727,6 +3117,12 @@
       <c r="F97">
         <v>50</v>
       </c>
+      <c r="G97">
+        <v>41661096.524782456</v>
+      </c>
+      <c r="H97" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
@@ -2747,6 +3143,12 @@
       <c r="F98">
         <v>50</v>
       </c>
+      <c r="G98">
+        <v>62552222.34532392</v>
+      </c>
+      <c r="H98" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
@@ -2768,6 +3170,12 @@
       <c r="F99">
         <v>50</v>
       </c>
+      <c r="G99">
+        <v>24621765.957797289</v>
+      </c>
+      <c r="H99" t="s">
+        <v>90</v>
+      </c>
       <c r="I99">
         <v>0.7</v>
       </c>
@@ -2791,6 +3199,12 @@
       <c r="F100">
         <v>50</v>
       </c>
+      <c r="G100">
+        <v>36457022.457391247</v>
+      </c>
+      <c r="H100" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
@@ -2811,6 +3225,12 @@
       <c r="F101">
         <v>50</v>
       </c>
+      <c r="G101">
+        <v>69725255.78241989</v>
+      </c>
+      <c r="H101" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
@@ -2831,6 +3251,12 @@
       <c r="F102">
         <v>50</v>
       </c>
+      <c r="G102">
+        <v>52521578.300668471</v>
+      </c>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
       <c r="J102" t="s">
         <v>30</v>
       </c>
@@ -2861,6 +3287,12 @@
       <c r="F103">
         <v>50</v>
       </c>
+      <c r="G103">
+        <v>55867214.242692553</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
       <c r="I103">
         <v>0.8</v>
       </c>
@@ -2884,6 +3316,12 @@
       <c r="F104">
         <v>50</v>
       </c>
+      <c r="G104">
+        <v>16650520.47955572</v>
+      </c>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
@@ -2904,6 +3342,12 @@
       <c r="F105">
         <v>50</v>
       </c>
+      <c r="G105">
+        <v>23946919.912781108</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
@@ -2924,6 +3368,12 @@
       <c r="F106">
         <v>50</v>
       </c>
+      <c r="G106">
+        <v>37945515.360656373</v>
+      </c>
+      <c r="H106" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
@@ -2944,6 +3394,12 @@
       <c r="F107">
         <v>50</v>
       </c>
+      <c r="G107">
+        <v>14436701.630773749</v>
+      </c>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
@@ -2964,6 +3420,12 @@
       <c r="F108">
         <v>50</v>
       </c>
+      <c r="G108">
+        <v>26723788.404769398</v>
+      </c>
+      <c r="H108" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
@@ -2984,6 +3446,12 @@
       <c r="F109">
         <v>50</v>
       </c>
+      <c r="G109">
+        <v>40568469.932022512</v>
+      </c>
+      <c r="H109" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
@@ -3004,6 +3472,12 @@
       <c r="F110">
         <v>50</v>
       </c>
+      <c r="G110">
+        <v>5282160.2503342098</v>
+      </c>
+      <c r="H110" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
@@ -3024,6 +3498,12 @@
       <c r="F111">
         <v>50</v>
       </c>
+      <c r="G111">
+        <v>16007004.123303911</v>
+      </c>
+      <c r="H111" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
@@ -3044,6 +3524,12 @@
       <c r="F112">
         <v>50</v>
       </c>
+      <c r="G112">
+        <v>32932433.485479731</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
@@ -3064,6 +3550,12 @@
       <c r="F113">
         <v>50</v>
       </c>
+      <c r="G113">
+        <v>48726479.320642039</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
@@ -3085,6 +3577,12 @@
       <c r="F114">
         <v>100</v>
       </c>
+      <c r="G114">
+        <v>4773862.2992409104</v>
+      </c>
+      <c r="H114" t="s">
+        <v>48</v>
+      </c>
       <c r="I114">
         <v>0.7</v>
       </c>
@@ -3112,6 +3610,12 @@
       <c r="F115">
         <v>100</v>
       </c>
+      <c r="G115">
+        <v>11186619.666127879</v>
+      </c>
+      <c r="H115" t="s">
+        <v>49</v>
+      </c>
       <c r="I115">
         <v>0.8</v>
       </c>
@@ -3136,6 +3640,12 @@
       <c r="F116">
         <v>100</v>
       </c>
+      <c r="G116">
+        <v>19722118.821827259</v>
+      </c>
+      <c r="H116" t="s">
+        <v>50</v>
+      </c>
       <c r="I116">
         <v>0.9</v>
       </c>
@@ -3160,6 +3670,12 @@
       <c r="F117">
         <v>100</v>
       </c>
+      <c r="G117">
+        <v>7154886.4009164404</v>
+      </c>
+      <c r="H117" t="s">
+        <v>51</v>
+      </c>
       <c r="I117">
         <v>0.7</v>
       </c>
@@ -3184,6 +3700,12 @@
       <c r="F118">
         <v>100</v>
       </c>
+      <c r="G118">
+        <v>12290407.622097589</v>
+      </c>
+      <c r="H118" t="s">
+        <v>52</v>
+      </c>
       <c r="I118">
         <v>0.8</v>
       </c>
@@ -3208,6 +3730,12 @@
       <c r="F119">
         <v>100</v>
       </c>
+      <c r="G119">
+        <v>21215469.400269501</v>
+      </c>
+      <c r="H119" t="s">
+        <v>53</v>
+      </c>
       <c r="I119">
         <v>0.9</v>
       </c>
@@ -4218,6 +4746,312 @@
       </c>
       <c r="I161">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>20</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>-12</v>
+      </c>
+      <c r="D162">
+        <v>0.7</v>
+      </c>
+      <c r="E162">
+        <f>D162*I162</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F162">
+        <v>100</v>
+      </c>
+      <c r="G162">
+        <v>4773862.2992409104</v>
+      </c>
+      <c r="I162">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>20</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>-12</v>
+      </c>
+      <c r="D163">
+        <v>0.75</v>
+      </c>
+      <c r="E163">
+        <f>D163*I163</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F163">
+        <v>100</v>
+      </c>
+      <c r="G163">
+        <v>11186619.666127879</v>
+      </c>
+      <c r="I163">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>20</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>-12</v>
+      </c>
+      <c r="D164">
+        <v>0.75</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ref="E164:E173" si="5">D164*I164</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F164">
+        <v>100</v>
+      </c>
+      <c r="G164">
+        <v>19722118.821827259</v>
+      </c>
+      <c r="I164">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>20</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>-12</v>
+      </c>
+      <c r="D165">
+        <v>0.75</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="5"/>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="F165">
+        <v>100</v>
+      </c>
+      <c r="G165">
+        <v>7154886.4009164404</v>
+      </c>
+      <c r="I165">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>20</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>-12</v>
+      </c>
+      <c r="D166">
+        <v>0.8</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>0.68</v>
+      </c>
+      <c r="F166">
+        <v>100</v>
+      </c>
+      <c r="G166">
+        <v>12290407.622097589</v>
+      </c>
+      <c r="I166">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>20</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>-12</v>
+      </c>
+      <c r="D167">
+        <v>0.8</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
+      <c r="F167">
+        <v>100</v>
+      </c>
+      <c r="G167">
+        <v>21215469.400269501</v>
+      </c>
+      <c r="I167">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>21</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>-12</v>
+      </c>
+      <c r="D168">
+        <v>0.85</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F168">
+        <v>100</v>
+      </c>
+      <c r="I168">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>21</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <v>-12</v>
+      </c>
+      <c r="D169">
+        <v>0.85</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="5"/>
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="F169">
+        <v>100</v>
+      </c>
+      <c r="I169">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>21</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>-12</v>
+      </c>
+      <c r="D170">
+        <v>0.85</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="5"/>
+        <v>0.8075</v>
+      </c>
+      <c r="F170">
+        <v>100</v>
+      </c>
+      <c r="I170">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>21</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <v>-12</v>
+      </c>
+      <c r="D171">
+        <v>0.9</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F171">
+        <v>100</v>
+      </c>
+      <c r="I171">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>21</v>
+      </c>
+      <c r="B172">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <v>-12</v>
+      </c>
+      <c r="D172">
+        <v>0.9</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F172">
+        <v>100</v>
+      </c>
+      <c r="I172">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>21</v>
+      </c>
+      <c r="B173">
+        <v>12</v>
+      </c>
+      <c r="C173">
+        <v>-12</v>
+      </c>
+      <c r="D173">
+        <v>0.9</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="5"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F173">
+        <v>100</v>
+      </c>
+      <c r="I173">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB2579-7E0F-4B36-A379-61F08C77221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC113C25-33F4-476B-9441-3F7F14AB812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -402,6 +402,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -708,13 +712,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="27.7265625" style="6" customWidth="1"/>
     <col min="8" max="8" width="64.453125" customWidth="1"/>
     <col min="9" max="9" width="17.1796875" customWidth="1"/>
     <col min="10" max="10" width="12.81640625" customWidth="1"/>
@@ -739,7 +743,7 @@
       <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="2"/>
@@ -767,7 +771,7 @@
       <c r="F2">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J2" t="s">
@@ -793,7 +797,7 @@
       <c r="F3">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J3" t="s">
@@ -819,7 +823,7 @@
       <c r="F4">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -842,7 +846,7 @@
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -865,7 +869,7 @@
       <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -888,7 +892,7 @@
       <c r="F7">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -911,7 +915,7 @@
       <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -934,7 +938,7 @@
       <c r="F9">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -957,7 +961,7 @@
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -980,7 +984,7 @@
       <c r="F11">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1003,7 +1007,7 @@
       <c r="F12">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1026,7 +1030,7 @@
       <c r="F13">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1049,7 +1053,7 @@
       <c r="F14">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1072,7 +1076,7 @@
       <c r="F15">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1095,7 +1099,7 @@
       <c r="F16">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1118,7 +1122,7 @@
       <c r="F17">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1141,7 +1145,7 @@
       <c r="F18">
         <v>50</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="3"/>
@@ -1165,7 +1169,7 @@
       <c r="F19">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1188,7 +1192,7 @@
       <c r="F20">
         <v>50</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1211,7 +1215,7 @@
       <c r="F21">
         <v>50</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1234,7 +1238,7 @@
       <c r="F22">
         <v>50</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1257,7 +1261,7 @@
       <c r="F23">
         <v>50</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1280,7 +1284,7 @@
       <c r="F24">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1303,7 +1307,7 @@
       <c r="F25">
         <v>50</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1326,7 +1330,7 @@
       <c r="F26">
         <v>50</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -1353,7 +1357,7 @@
       <c r="F27">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1376,7 +1380,7 @@
       <c r="F28">
         <v>50</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1399,7 +1403,7 @@
       <c r="F29">
         <v>50</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1422,7 +1426,7 @@
       <c r="F30">
         <v>50</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1445,7 +1449,7 @@
       <c r="F31">
         <v>50</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -1472,7 +1476,7 @@
       <c r="F32">
         <v>50</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -1499,7 +1503,7 @@
       <c r="F33">
         <v>50</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1526,7 +1530,7 @@
       <c r="F34">
         <v>50</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J34" t="s">
@@ -1552,7 +1556,7 @@
       <c r="F35">
         <v>50</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1575,7 +1579,7 @@
       <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1598,7 +1602,7 @@
       <c r="F37">
         <v>50</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1621,7 +1625,7 @@
       <c r="F38">
         <v>50</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="6">
         <v>1124217.7522865001</v>
       </c>
       <c r="H38" t="s">
@@ -1647,7 +1651,7 @@
       <c r="F39">
         <v>50</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1670,7 +1674,7 @@
       <c r="F40">
         <v>50</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6">
         <v>21686397.60012088</v>
       </c>
       <c r="H40" t="s">
@@ -1696,7 +1700,7 @@
       <c r="F41">
         <v>50</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="6">
         <v>37829581.426437467</v>
       </c>
       <c r="H41" t="s">
@@ -1722,7 +1726,7 @@
       <c r="F42">
         <v>50</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1745,7 +1749,7 @@
       <c r="F43">
         <v>50</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1768,7 +1772,7 @@
       <c r="F44">
         <v>50</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1791,7 +1795,7 @@
       <c r="F45">
         <v>50</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1814,7 +1818,7 @@
       <c r="F46">
         <v>50</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="6">
         <v>88665.890940519996</v>
       </c>
       <c r="H46" t="s">
@@ -1840,7 +1844,7 @@
       <c r="F47">
         <v>50</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="6">
         <v>10937284.017534729</v>
       </c>
       <c r="H47" t="s">
@@ -1866,7 +1870,7 @@
       <c r="F48">
         <v>50</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <v>21835719.924602289</v>
       </c>
       <c r="H48" t="s">
@@ -1892,7 +1896,7 @@
       <c r="F49">
         <v>50</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="6">
         <v>35086121.701041572</v>
       </c>
       <c r="H49" t="s">
@@ -1918,7 +1922,7 @@
       <c r="F50">
         <v>50</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1941,7 +1945,7 @@
       <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1964,7 +1968,7 @@
       <c r="F52">
         <v>50</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1987,7 +1991,7 @@
       <c r="F53">
         <v>50</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2010,7 +2014,7 @@
       <c r="F54">
         <v>50</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2033,7 +2037,7 @@
       <c r="F55">
         <v>50</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2056,7 +2060,7 @@
       <c r="F56">
         <v>50</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="6">
         <v>3627593.6092775399</v>
       </c>
       <c r="H56" t="s">
@@ -2082,7 +2086,7 @@
       <c r="F57">
         <v>50</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="6">
         <v>16363177.18720264</v>
       </c>
       <c r="H57" t="s">
@@ -2108,7 +2112,7 @@
       <c r="F58">
         <v>50</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="6">
         <v>54931760.201158971</v>
       </c>
       <c r="H58" t="s">
@@ -2134,7 +2138,7 @@
       <c r="F59">
         <v>50</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="6">
         <v>65388060.125653706</v>
       </c>
       <c r="H59" t="s">
@@ -2160,7 +2164,7 @@
       <c r="F60">
         <v>50</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="6">
         <v>7598060.7407952901</v>
       </c>
       <c r="H60" t="s">
@@ -2186,7 +2190,7 @@
       <c r="F61">
         <v>50</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2209,7 +2213,7 @@
       <c r="F62">
         <v>50</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="6">
         <v>12296567.47729424</v>
       </c>
       <c r="H62" t="s">
@@ -2235,7 +2239,7 @@
       <c r="F63">
         <v>50</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="6">
         <v>24961736.89426415</v>
       </c>
       <c r="H63" t="s">
@@ -2261,7 +2265,7 @@
       <c r="F64">
         <v>50</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="6">
         <v>38601956.339582913</v>
       </c>
       <c r="H64" t="s">
@@ -2287,7 +2291,7 @@
       <c r="F65">
         <v>50</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2310,7 +2314,7 @@
       <c r="F66">
         <v>50</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="6">
         <v>7579028.5573276896</v>
       </c>
       <c r="H66" t="s">
@@ -2336,7 +2340,7 @@
       <c r="F67">
         <v>50</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="6">
         <v>20258635.496704541</v>
       </c>
       <c r="H67" t="s">
@@ -2362,7 +2366,7 @@
       <c r="F68">
         <v>50</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="6">
         <v>43017473.647142448</v>
       </c>
       <c r="H68" t="s">
@@ -2388,7 +2392,7 @@
       <c r="F69">
         <v>50</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2411,7 +2415,7 @@
       <c r="F70">
         <v>50</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="6">
         <v>11372293.316085059</v>
       </c>
       <c r="H70" t="s">
@@ -2437,7 +2441,7 @@
       <c r="F71">
         <v>50</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="6">
         <v>22134264.923691992</v>
       </c>
       <c r="H71" t="s">
@@ -2463,7 +2467,7 @@
       <c r="F72">
         <v>50</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="6">
         <v>49815817.516421981</v>
       </c>
       <c r="H72" t="s">
@@ -2489,7 +2493,7 @@
       <c r="F73">
         <v>50</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2512,7 +2516,7 @@
       <c r="F74">
         <v>50</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="6">
         <v>20184566.97762575</v>
       </c>
       <c r="H74" t="s">
@@ -2538,7 +2542,7 @@
       <c r="F75">
         <v>50</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="6">
         <v>40989846.146916911</v>
       </c>
       <c r="H75" t="s">
@@ -2564,7 +2568,7 @@
       <c r="F76">
         <v>50</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="6">
         <v>52868367.439185157</v>
       </c>
       <c r="H76" t="s">
@@ -2590,7 +2594,7 @@
       <c r="F77">
         <v>50</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="6">
         <v>23849548.1798319</v>
       </c>
       <c r="H77" t="s">
@@ -2616,7 +2620,7 @@
       <c r="F78">
         <v>50</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="6">
         <v>7717394.3566814503</v>
       </c>
       <c r="H78" t="s">
@@ -2642,7 +2646,7 @@
       <c r="F79">
         <v>50</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="6">
         <v>24716707.523966022</v>
       </c>
       <c r="H79" t="s">
@@ -2668,7 +2672,7 @@
       <c r="F80">
         <v>50</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="6">
         <v>35110669.764625363</v>
       </c>
       <c r="H80" t="s">
@@ -2694,7 +2698,7 @@
       <c r="F81">
         <v>50</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="6">
         <v>46993115.254884668</v>
       </c>
       <c r="H81" t="s">
@@ -2720,7 +2724,7 @@
       <c r="F82">
         <v>50</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="6">
         <v>55675055.644134298</v>
       </c>
       <c r="H82" t="s">
@@ -2746,7 +2750,7 @@
       <c r="F83">
         <v>50</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2769,7 +2773,7 @@
       <c r="F84">
         <v>50</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="6">
         <v>6228763.3590614796</v>
       </c>
       <c r="H84" t="s">
@@ -2795,7 +2799,7 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="6">
         <v>20373714.058049299</v>
       </c>
       <c r="H85" t="s">
@@ -2821,7 +2825,7 @@
       <c r="F86">
         <v>50</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="6">
         <v>20182300.278814539</v>
       </c>
       <c r="H86" t="s">
@@ -2847,7 +2851,7 @@
       <c r="F87">
         <v>50</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="6">
         <v>39590795.688858546</v>
       </c>
       <c r="H87" t="s">
@@ -2873,7 +2877,7 @@
       <c r="F88">
         <v>50</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="6">
         <v>44205674.554515332</v>
       </c>
       <c r="H88" t="s">
@@ -2899,7 +2903,7 @@
       <c r="F89">
         <v>50</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="6">
         <v>25404821.066878781</v>
       </c>
       <c r="H89" t="s">
@@ -2925,7 +2929,7 @@
       <c r="F90">
         <v>50</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="6">
         <v>25404821.066878781</v>
       </c>
       <c r="H90" t="s">
@@ -2957,7 +2961,7 @@
       <c r="F91">
         <v>50</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="6">
         <v>31284356.92920658</v>
       </c>
       <c r="H91" t="s">
@@ -2983,7 +2987,7 @@
       <c r="F92">
         <v>50</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="6">
         <v>42090161.937011302</v>
       </c>
       <c r="H92" t="s">
@@ -3009,7 +3013,7 @@
       <c r="F93">
         <v>50</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="6">
         <v>14850928.62433256</v>
       </c>
       <c r="H93" t="s">
@@ -3035,7 +3039,7 @@
       <c r="F94">
         <v>50</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="6">
         <v>34080054.777649596</v>
       </c>
       <c r="H94" t="s">
@@ -3061,7 +3065,7 @@
       <c r="F95">
         <v>50</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="6">
         <v>51957078.618019581</v>
       </c>
       <c r="H95" t="s">
@@ -3088,7 +3092,7 @@
       <c r="F96">
         <v>50</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="6">
         <v>18948366.46626636</v>
       </c>
       <c r="H96" t="s">
@@ -3117,7 +3121,7 @@
       <c r="F97">
         <v>50</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="6">
         <v>41661096.524782456</v>
       </c>
       <c r="H97" t="s">
@@ -3143,7 +3147,7 @@
       <c r="F98">
         <v>50</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="6">
         <v>62552222.34532392</v>
       </c>
       <c r="H98" t="s">
@@ -3170,7 +3174,7 @@
       <c r="F99">
         <v>50</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="6">
         <v>24621765.957797289</v>
       </c>
       <c r="H99" t="s">
@@ -3199,7 +3203,7 @@
       <c r="F100">
         <v>50</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="6">
         <v>36457022.457391247</v>
       </c>
       <c r="H100" t="s">
@@ -3225,7 +3229,7 @@
       <c r="F101">
         <v>50</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="6">
         <v>69725255.78241989</v>
       </c>
       <c r="H101" t="s">
@@ -3251,7 +3255,7 @@
       <c r="F102">
         <v>50</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="6">
         <v>52521578.300668471</v>
       </c>
       <c r="H102" t="s">
@@ -3287,7 +3291,7 @@
       <c r="F103">
         <v>50</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="6">
         <v>55867214.242692553</v>
       </c>
       <c r="H103" t="s">
@@ -3316,7 +3320,7 @@
       <c r="F104">
         <v>50</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="6">
         <v>16650520.47955572</v>
       </c>
       <c r="H104" t="s">
@@ -3342,7 +3346,7 @@
       <c r="F105">
         <v>50</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="6">
         <v>23946919.912781108</v>
       </c>
       <c r="H105" t="s">
@@ -3368,7 +3372,7 @@
       <c r="F106">
         <v>50</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="6">
         <v>37945515.360656373</v>
       </c>
       <c r="H106" t="s">
@@ -3394,7 +3398,7 @@
       <c r="F107">
         <v>50</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="6">
         <v>14436701.630773749</v>
       </c>
       <c r="H107" t="s">
@@ -3420,7 +3424,7 @@
       <c r="F108">
         <v>50</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="6">
         <v>26723788.404769398</v>
       </c>
       <c r="H108" t="s">
@@ -3446,7 +3450,7 @@
       <c r="F109">
         <v>50</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="6">
         <v>40568469.932022512</v>
       </c>
       <c r="H109" t="s">
@@ -3472,7 +3476,7 @@
       <c r="F110">
         <v>50</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="6">
         <v>5282160.2503342098</v>
       </c>
       <c r="H110" t="s">
@@ -3498,7 +3502,7 @@
       <c r="F111">
         <v>50</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="6">
         <v>16007004.123303911</v>
       </c>
       <c r="H111" t="s">
@@ -3524,7 +3528,7 @@
       <c r="F112">
         <v>50</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="6">
         <v>32932433.485479731</v>
       </c>
       <c r="H112" t="s">
@@ -3550,7 +3554,7 @@
       <c r="F113">
         <v>50</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="6">
         <v>48726479.320642039</v>
       </c>
       <c r="H113" t="s">
@@ -3577,7 +3581,7 @@
       <c r="F114">
         <v>100</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="6">
         <v>4773862.2992409104</v>
       </c>
       <c r="H114" t="s">
@@ -3610,7 +3614,7 @@
       <c r="F115">
         <v>100</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="6">
         <v>11186619.666127879</v>
       </c>
       <c r="H115" t="s">
@@ -3640,7 +3644,7 @@
       <c r="F116">
         <v>100</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="6">
         <v>19722118.821827259</v>
       </c>
       <c r="H116" t="s">
@@ -3670,7 +3674,7 @@
       <c r="F117">
         <v>100</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="6">
         <v>7154886.4009164404</v>
       </c>
       <c r="H117" t="s">
@@ -3700,7 +3704,7 @@
       <c r="F118">
         <v>100</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="6">
         <v>12290407.622097589</v>
       </c>
       <c r="H118" t="s">
@@ -3730,7 +3734,7 @@
       <c r="F119">
         <v>100</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="6">
         <v>21215469.400269501</v>
       </c>
       <c r="H119" t="s">
@@ -4768,9 +4772,6 @@
       <c r="F162">
         <v>100</v>
       </c>
-      <c r="G162">
-        <v>4773862.2992409104</v>
-      </c>
       <c r="I162">
         <v>0.95</v>
       </c>
@@ -4795,9 +4796,6 @@
       <c r="F163">
         <v>100</v>
       </c>
-      <c r="G163">
-        <v>11186619.666127879</v>
-      </c>
       <c r="I163">
         <v>0.8</v>
       </c>
@@ -4822,9 +4820,6 @@
       <c r="F164">
         <v>100</v>
       </c>
-      <c r="G164">
-        <v>19722118.821827259</v>
-      </c>
       <c r="I164">
         <v>0.9</v>
       </c>
@@ -4849,9 +4844,6 @@
       <c r="F165">
         <v>100</v>
       </c>
-      <c r="G165">
-        <v>7154886.4009164404</v>
-      </c>
       <c r="I165">
         <v>0.95</v>
       </c>
@@ -4876,9 +4868,6 @@
       <c r="F166">
         <v>100</v>
       </c>
-      <c r="G166">
-        <v>12290407.622097589</v>
-      </c>
       <c r="I166">
         <v>0.85</v>
       </c>
@@ -4902,9 +4891,6 @@
       </c>
       <c r="F167">
         <v>100</v>
-      </c>
-      <c r="G167">
-        <v>21215469.400269501</v>
       </c>
       <c r="I167">
         <v>0.95</v>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC113C25-33F4-476B-9441-3F7F14AB812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FAB3F-3609-4ECD-8788-39C4A26DE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5040,6 +5040,968 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>22</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>-1</v>
+      </c>
+      <c r="D174">
+        <v>0.13</v>
+      </c>
+      <c r="E174">
+        <v>0.12</v>
+      </c>
+      <c r="F174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>22</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>-1</v>
+      </c>
+      <c r="D175">
+        <v>0.13</v>
+      </c>
+      <c r="E175">
+        <v>0.125</v>
+      </c>
+      <c r="F175">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>22</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>-1</v>
+      </c>
+      <c r="D176">
+        <v>0.1</v>
+      </c>
+      <c r="E176">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F176">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>22</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>-1</v>
+      </c>
+      <c r="D177">
+        <v>0.11</v>
+      </c>
+      <c r="E177">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>22</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>-3</v>
+      </c>
+      <c r="D178">
+        <v>0.125</v>
+      </c>
+      <c r="E178">
+        <v>0.09</v>
+      </c>
+      <c r="F178">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>22</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>-3</v>
+      </c>
+      <c r="D179">
+        <v>0.125</v>
+      </c>
+      <c r="E179">
+        <v>0.11</v>
+      </c>
+      <c r="F179">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>23</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>-3</v>
+      </c>
+      <c r="D180">
+        <v>0.125</v>
+      </c>
+      <c r="E180">
+        <v>0.12</v>
+      </c>
+      <c r="F180">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>23</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>-1</v>
+      </c>
+      <c r="D181">
+        <v>0.12</v>
+      </c>
+      <c r="E181">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F181">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>23</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>-3</v>
+      </c>
+      <c r="D182">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E182">
+        <v>0.09</v>
+      </c>
+      <c r="F182">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>23</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>-3</v>
+      </c>
+      <c r="D183">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E183">
+        <v>0.11</v>
+      </c>
+      <c r="F183">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>23</v>
+      </c>
+      <c r="B184">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>-3</v>
+      </c>
+      <c r="D184">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E184">
+        <v>0.13</v>
+      </c>
+      <c r="F184">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>23</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>-3</v>
+      </c>
+      <c r="D185">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E185">
+        <v>0.08</v>
+      </c>
+      <c r="F185">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>24</v>
+      </c>
+      <c r="B186">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>-3</v>
+      </c>
+      <c r="D186">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E186">
+        <v>0.1</v>
+      </c>
+      <c r="F186">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>24</v>
+      </c>
+      <c r="B187">
+        <v>14</v>
+      </c>
+      <c r="C187">
+        <v>-3</v>
+      </c>
+      <c r="D187">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E187">
+        <v>0.12</v>
+      </c>
+      <c r="F187">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>24</v>
+      </c>
+      <c r="B188">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>-3</v>
+      </c>
+      <c r="D188">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E188">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F188">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>24</v>
+      </c>
+      <c r="B189">
+        <v>16</v>
+      </c>
+      <c r="C189">
+        <v>-3</v>
+      </c>
+      <c r="D189">
+        <v>0.155</v>
+      </c>
+      <c r="E189">
+        <v>0.08</v>
+      </c>
+      <c r="F189">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>24</v>
+      </c>
+      <c r="B190">
+        <v>17</v>
+      </c>
+      <c r="C190">
+        <v>-3</v>
+      </c>
+      <c r="D190">
+        <v>0.155</v>
+      </c>
+      <c r="E190">
+        <v>0.1</v>
+      </c>
+      <c r="F190">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>24</v>
+      </c>
+      <c r="B191">
+        <v>18</v>
+      </c>
+      <c r="C191">
+        <v>-3</v>
+      </c>
+      <c r="D191">
+        <v>0.155</v>
+      </c>
+      <c r="E191">
+        <v>0.12</v>
+      </c>
+      <c r="F191">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>25</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>-3</v>
+      </c>
+      <c r="D192">
+        <v>0.155</v>
+      </c>
+      <c r="E192">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F192">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>25</v>
+      </c>
+      <c r="B193">
+        <v>20</v>
+      </c>
+      <c r="C193">
+        <v>-3</v>
+      </c>
+      <c r="D193">
+        <v>0.155</v>
+      </c>
+      <c r="E193">
+        <v>0.15</v>
+      </c>
+      <c r="F193">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194">
+        <v>21</v>
+      </c>
+      <c r="C194">
+        <v>-1</v>
+      </c>
+      <c r="D194">
+        <v>0.12</v>
+      </c>
+      <c r="E194">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F194">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>25</v>
+      </c>
+      <c r="B195">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <v>-3</v>
+      </c>
+      <c r="D195">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E195">
+        <v>0.11</v>
+      </c>
+      <c r="F195">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>25</v>
+      </c>
+      <c r="B196">
+        <v>23</v>
+      </c>
+      <c r="C196">
+        <v>-3</v>
+      </c>
+      <c r="D196">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E196">
+        <v>0.13</v>
+      </c>
+      <c r="F196">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>25</v>
+      </c>
+      <c r="B197">
+        <v>24</v>
+      </c>
+      <c r="C197">
+        <v>-3</v>
+      </c>
+      <c r="D197">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E197">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F197">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198">
+        <v>25</v>
+      </c>
+      <c r="C198">
+        <v>-3</v>
+      </c>
+      <c r="D198">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E198">
+        <v>0.155</v>
+      </c>
+      <c r="F198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199">
+        <v>26</v>
+      </c>
+      <c r="C199">
+        <v>-3</v>
+      </c>
+      <c r="D199">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E199">
+        <v>0.16</v>
+      </c>
+      <c r="F199">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>26</v>
+      </c>
+      <c r="B200">
+        <v>27</v>
+      </c>
+      <c r="C200">
+        <v>-3</v>
+      </c>
+      <c r="D200">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E200">
+        <v>0.09</v>
+      </c>
+      <c r="F200">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>26</v>
+      </c>
+      <c r="B201">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>-3</v>
+      </c>
+      <c r="D201">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E201">
+        <v>0.11</v>
+      </c>
+      <c r="F201">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>26</v>
+      </c>
+      <c r="B202">
+        <v>29</v>
+      </c>
+      <c r="C202">
+        <v>-3</v>
+      </c>
+      <c r="D202">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E202">
+        <v>0.13</v>
+      </c>
+      <c r="F202">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>26</v>
+      </c>
+      <c r="B203">
+        <v>30</v>
+      </c>
+      <c r="C203">
+        <v>-3</v>
+      </c>
+      <c r="D203">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E203">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F203">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>27</v>
+      </c>
+      <c r="B204">
+        <v>31</v>
+      </c>
+      <c r="C204">
+        <v>-3</v>
+      </c>
+      <c r="D204">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E204">
+        <v>0.155</v>
+      </c>
+      <c r="F204">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>27</v>
+      </c>
+      <c r="B205">
+        <v>32</v>
+      </c>
+      <c r="C205">
+        <v>-3</v>
+      </c>
+      <c r="D205">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E205">
+        <v>0.16</v>
+      </c>
+      <c r="F205">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>27</v>
+      </c>
+      <c r="B206">
+        <v>33</v>
+      </c>
+      <c r="C206">
+        <v>-6</v>
+      </c>
+      <c r="D206">
+        <v>0.35</v>
+      </c>
+      <c r="E206">
+        <v>0.33</v>
+      </c>
+      <c r="F206">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>27</v>
+      </c>
+      <c r="B207">
+        <v>34</v>
+      </c>
+      <c r="C207">
+        <v>-6</v>
+      </c>
+      <c r="D207">
+        <v>0.45</v>
+      </c>
+      <c r="E207">
+        <f>D207*I207</f>
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>27</v>
+      </c>
+      <c r="B208">
+        <v>35</v>
+      </c>
+      <c r="C208">
+        <v>-6</v>
+      </c>
+      <c r="D208">
+        <v>0.45</v>
+      </c>
+      <c r="E208">
+        <v>0.38</v>
+      </c>
+      <c r="F208">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>27</v>
+      </c>
+      <c r="B209">
+        <v>36</v>
+      </c>
+      <c r="C209">
+        <v>-6</v>
+      </c>
+      <c r="D209">
+        <v>0.45</v>
+      </c>
+      <c r="E209">
+        <v>0.42</v>
+      </c>
+      <c r="F209">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>28</v>
+      </c>
+      <c r="B210">
+        <v>37</v>
+      </c>
+      <c r="C210">
+        <v>-6</v>
+      </c>
+      <c r="D210">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E210">
+        <f>D210*I210</f>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>28</v>
+      </c>
+      <c r="B211">
+        <v>38</v>
+      </c>
+      <c r="C211">
+        <v>-6</v>
+      </c>
+      <c r="D211">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E211">
+        <v>0.44</v>
+      </c>
+      <c r="F211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>28</v>
+      </c>
+      <c r="B212">
+        <v>39</v>
+      </c>
+      <c r="C212">
+        <v>-6</v>
+      </c>
+      <c r="D212">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E212">
+        <v>0.5</v>
+      </c>
+      <c r="F212">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>28</v>
+      </c>
+      <c r="B213">
+        <v>40</v>
+      </c>
+      <c r="C213">
+        <v>-6</v>
+      </c>
+      <c r="D213">
+        <v>0.65</v>
+      </c>
+      <c r="E213">
+        <v>0.53</v>
+      </c>
+      <c r="F213">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>28</v>
+      </c>
+      <c r="B214">
+        <v>41</v>
+      </c>
+      <c r="C214">
+        <v>-9</v>
+      </c>
+      <c r="D214">
+        <v>0.5</v>
+      </c>
+      <c r="E214">
+        <v>0.47</v>
+      </c>
+      <c r="F214">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>28</v>
+      </c>
+      <c r="B215">
+        <v>42</v>
+      </c>
+      <c r="C215">
+        <v>-9</v>
+      </c>
+      <c r="D215">
+        <v>0.6</v>
+      </c>
+      <c r="E215">
+        <v>0.45</v>
+      </c>
+      <c r="F215">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>29</v>
+      </c>
+      <c r="B216">
+        <v>43</v>
+      </c>
+      <c r="C216">
+        <v>-9</v>
+      </c>
+      <c r="D216">
+        <v>0.6</v>
+      </c>
+      <c r="E216">
+        <v>0.5</v>
+      </c>
+      <c r="F216">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>29</v>
+      </c>
+      <c r="B217">
+        <v>44</v>
+      </c>
+      <c r="C217">
+        <v>-9</v>
+      </c>
+      <c r="D217">
+        <v>0.6</v>
+      </c>
+      <c r="E217">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F217">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>29</v>
+      </c>
+      <c r="B218">
+        <v>45</v>
+      </c>
+      <c r="C218">
+        <v>-9</v>
+      </c>
+      <c r="D218">
+        <v>0.7</v>
+      </c>
+      <c r="E218">
+        <v>0.45</v>
+      </c>
+      <c r="F218">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>29</v>
+      </c>
+      <c r="B219">
+        <v>46</v>
+      </c>
+      <c r="C219">
+        <v>-9</v>
+      </c>
+      <c r="D219">
+        <v>0.7</v>
+      </c>
+      <c r="E219">
+        <v>0.5</v>
+      </c>
+      <c r="F219">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>29</v>
+      </c>
+      <c r="B220">
+        <v>47</v>
+      </c>
+      <c r="C220">
+        <v>-9</v>
+      </c>
+      <c r="D220">
+        <v>0.7</v>
+      </c>
+      <c r="E220">
+        <v>0.6</v>
+      </c>
+      <c r="F220">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>29</v>
+      </c>
+      <c r="B221">
+        <v>48</v>
+      </c>
+      <c r="C221">
+        <v>-9</v>
+      </c>
+      <c r="D221">
+        <v>0.7</v>
+      </c>
+      <c r="E221">
+        <v>0.65</v>
+      </c>
+      <c r="F221">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FAB3F-3609-4ECD-8788-39C4A26DE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4653AEBC-70BC-47C1-BE01-1817DCA821D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>Run ID</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>['1000000000.0', '0.55', '0.5', '0.04', '0.98', '1', '1', '[69725255.78241989]']</t>
+  </si>
+  <si>
+    <t>amplitude</t>
   </si>
 </sst>
 </file>
@@ -710,21 +713,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245:F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="27.7265625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="64.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.7265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="64.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,16 +746,19 @@
       <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -771,14 +777,14 @@
       <c r="F2">
         <v>50</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -797,14 +803,14 @@
       <c r="F3">
         <v>50</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -823,11 +829,11 @@
       <c r="F4">
         <v>50</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -846,11 +852,11 @@
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -869,11 +875,11 @@
       <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -892,11 +898,11 @@
       <c r="F7">
         <v>50</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -915,11 +921,11 @@
       <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -938,11 +944,11 @@
       <c r="F9">
         <v>50</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -961,11 +967,11 @@
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -984,11 +990,11 @@
       <c r="F11">
         <v>50</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1007,11 +1013,11 @@
       <c r="F12">
         <v>50</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1030,11 +1036,11 @@
       <c r="F13">
         <v>50</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1053,11 +1059,11 @@
       <c r="F14">
         <v>50</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1076,11 +1082,11 @@
       <c r="F15">
         <v>50</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1099,11 +1105,11 @@
       <c r="F16">
         <v>50</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1122,11 +1128,11 @@
       <c r="F17">
         <v>50</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1145,12 +1151,12 @@
       <c r="F18">
         <v>50</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1169,11 +1175,11 @@
       <c r="F19">
         <v>50</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1192,11 +1198,11 @@
       <c r="F20">
         <v>50</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1215,11 +1221,11 @@
       <c r="F21">
         <v>50</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1238,11 +1244,11 @@
       <c r="F22">
         <v>50</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1261,11 +1267,11 @@
       <c r="F23">
         <v>50</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1284,11 +1290,11 @@
       <c r="F24">
         <v>50</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1307,11 +1313,11 @@
       <c r="F25">
         <v>50</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1330,15 +1336,15 @@
       <c r="F26">
         <v>50</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1357,11 +1363,11 @@
       <c r="F27">
         <v>50</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1380,11 +1386,11 @@
       <c r="F28">
         <v>50</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1403,11 +1409,11 @@
       <c r="F29">
         <v>50</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1426,11 +1432,11 @@
       <c r="F30">
         <v>50</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1449,15 +1455,15 @@
       <c r="F31">
         <v>50</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1476,15 +1482,15 @@
       <c r="F32">
         <v>50</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1503,15 +1509,15 @@
       <c r="F33">
         <v>50</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1530,14 +1536,14 @@
       <c r="F34">
         <v>50</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1556,11 +1562,11 @@
       <c r="F35">
         <v>50</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1579,11 +1585,11 @@
       <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1602,11 +1608,11 @@
       <c r="F37">
         <v>50</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1625,14 +1631,14 @@
       <c r="F38">
         <v>50</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <v>1124217.7522865001</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1651,11 +1657,11 @@
       <c r="F39">
         <v>50</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1674,14 +1680,14 @@
       <c r="F40">
         <v>50</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <v>21686397.60012088</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1700,14 +1706,14 @@
       <c r="F41">
         <v>50</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <v>37829581.426437467</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1726,11 +1732,11 @@
       <c r="F42">
         <v>50</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1749,11 +1755,11 @@
       <c r="F43">
         <v>50</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1772,11 +1778,11 @@
       <c r="F44">
         <v>50</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1795,11 +1801,11 @@
       <c r="F45">
         <v>50</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1818,14 +1824,14 @@
       <c r="F46">
         <v>50</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>88665.890940519996</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1844,14 +1850,14 @@
       <c r="F47">
         <v>50</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <v>10937284.017534729</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1870,14 +1876,14 @@
       <c r="F48">
         <v>50</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>21835719.924602289</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1896,14 +1902,14 @@
       <c r="F49">
         <v>50</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <v>35086121.701041572</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1922,11 +1928,11 @@
       <c r="F50">
         <v>50</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1945,11 +1951,11 @@
       <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1968,11 +1974,11 @@
       <c r="F52">
         <v>50</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1991,11 +1997,11 @@
       <c r="F53">
         <v>50</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2014,11 +2020,11 @@
       <c r="F54">
         <v>50</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2037,11 +2043,11 @@
       <c r="F55">
         <v>50</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2060,14 +2066,14 @@
       <c r="F56">
         <v>50</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <v>3627593.6092775399</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2086,14 +2092,14 @@
       <c r="F57">
         <v>50</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <v>16363177.18720264</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2112,14 +2118,14 @@
       <c r="F58">
         <v>50</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="6">
         <v>54931760.201158971</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
@@ -2138,14 +2144,14 @@
       <c r="F59">
         <v>50</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <v>65388060.125653706</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -2164,14 +2170,14 @@
       <c r="F60">
         <v>50</v>
       </c>
-      <c r="G60" s="6">
+      <c r="H60" s="6">
         <v>7598060.7407952901</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2190,11 +2196,11 @@
       <c r="F61">
         <v>50</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2213,14 +2219,14 @@
       <c r="F62">
         <v>50</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <v>12296567.47729424</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2239,14 +2245,14 @@
       <c r="F63">
         <v>50</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>24961736.89426415</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2265,14 +2271,14 @@
       <c r="F64">
         <v>50</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>38601956.339582913</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5</v>
       </c>
@@ -2291,11 +2297,11 @@
       <c r="F65">
         <v>50</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6</v>
       </c>
@@ -2314,14 +2320,14 @@
       <c r="F66">
         <v>50</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <v>7579028.5573276896</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2340,14 +2346,14 @@
       <c r="F67">
         <v>50</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <v>20258635.496704541</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6</v>
       </c>
@@ -2366,14 +2372,14 @@
       <c r="F68">
         <v>50</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="6">
         <v>43017473.647142448</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2392,11 +2398,11 @@
       <c r="F69">
         <v>50</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6</v>
       </c>
@@ -2415,14 +2421,14 @@
       <c r="F70">
         <v>50</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <v>11372293.316085059</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>6</v>
       </c>
@@ -2441,14 +2447,14 @@
       <c r="F71">
         <v>50</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <v>22134264.923691992</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2467,14 +2473,14 @@
       <c r="F72">
         <v>50</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="6">
         <v>49815817.516421981</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2493,11 +2499,11 @@
       <c r="F73">
         <v>50</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2516,14 +2522,14 @@
       <c r="F74">
         <v>50</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <v>20184566.97762575</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2542,14 +2548,14 @@
       <c r="F75">
         <v>50</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <v>40989846.146916911</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7</v>
       </c>
@@ -2568,14 +2574,14 @@
       <c r="F76">
         <v>50</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <v>52868367.439185157</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7</v>
       </c>
@@ -2594,14 +2600,14 @@
       <c r="F77">
         <v>50</v>
       </c>
-      <c r="G77" s="6">
+      <c r="H77" s="6">
         <v>23849548.1798319</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7</v>
       </c>
@@ -2620,14 +2626,14 @@
       <c r="F78">
         <v>50</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <v>7717394.3566814503</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7</v>
       </c>
@@ -2646,14 +2652,14 @@
       <c r="F79">
         <v>50</v>
       </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <v>24716707.523966022</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2672,14 +2678,14 @@
       <c r="F80">
         <v>50</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <v>35110669.764625363</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>7</v>
       </c>
@@ -2698,14 +2704,14 @@
       <c r="F81">
         <v>50</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>46993115.254884668</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2724,14 +2730,14 @@
       <c r="F82">
         <v>50</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <v>55675055.644134298</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2750,11 +2756,11 @@
       <c r="F83">
         <v>50</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="H83" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2773,14 +2779,14 @@
       <c r="F84">
         <v>50</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <v>6228763.3590614796</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2799,14 +2805,14 @@
       <c r="F85">
         <v>50</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <v>20373714.058049299</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2825,14 +2831,14 @@
       <c r="F86">
         <v>50</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <v>20182300.278814539</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2851,14 +2857,14 @@
       <c r="F87">
         <v>50</v>
       </c>
-      <c r="G87" s="6">
+      <c r="H87" s="6">
         <v>39590795.688858546</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2877,14 +2883,14 @@
       <c r="F88">
         <v>50</v>
       </c>
-      <c r="G88" s="6">
+      <c r="H88" s="6">
         <v>44205674.554515332</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2903,14 +2909,14 @@
       <c r="F89">
         <v>50</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>25404821.066878781</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -2929,20 +2935,20 @@
       <c r="F90">
         <v>50</v>
       </c>
-      <c r="G90" s="6">
+      <c r="H90" s="6">
         <v>25404821.066878781</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>81</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>29</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
@@ -2961,14 +2967,14 @@
       <c r="F91">
         <v>50</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>31284356.92920658</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9</v>
       </c>
@@ -2987,14 +2993,14 @@
       <c r="F92">
         <v>50</v>
       </c>
-      <c r="G92" s="6">
+      <c r="H92" s="6">
         <v>42090161.937011302</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9</v>
       </c>
@@ -3013,14 +3019,14 @@
       <c r="F93">
         <v>50</v>
       </c>
-      <c r="G93" s="6">
+      <c r="H93" s="6">
         <v>14850928.62433256</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9</v>
       </c>
@@ -3039,14 +3045,14 @@
       <c r="F94">
         <v>50</v>
       </c>
-      <c r="G94" s="6">
+      <c r="H94" s="6">
         <v>34080054.777649596</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9</v>
       </c>
@@ -3065,14 +3071,14 @@
       <c r="F95">
         <v>50</v>
       </c>
-      <c r="G95" s="6">
+      <c r="H95" s="6">
         <v>51957078.618019581</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9</v>
       </c>
@@ -3086,23 +3092,23 @@
         <v>0.45</v>
       </c>
       <c r="E96">
-        <f>D96*I96</f>
+        <f>D96*J96</f>
         <v>0.315</v>
       </c>
       <c r="F96">
         <v>50</v>
       </c>
-      <c r="G96" s="6">
+      <c r="H96" s="6">
         <v>18948366.46626636</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>87</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9</v>
       </c>
@@ -3121,14 +3127,14 @@
       <c r="F97">
         <v>50</v>
       </c>
-      <c r="G97" s="6">
+      <c r="H97" s="6">
         <v>41661096.524782456</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9</v>
       </c>
@@ -3147,14 +3153,14 @@
       <c r="F98">
         <v>50</v>
       </c>
-      <c r="G98" s="6">
+      <c r="H98" s="6">
         <v>62552222.34532392</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9</v>
       </c>
@@ -3168,23 +3174,23 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E99">
-        <f>D99*I99</f>
+        <f>D99*J99</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="F99">
         <v>50</v>
       </c>
-      <c r="G99" s="6">
+      <c r="H99" s="6">
         <v>24621765.957797289</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>90</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0.7</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9</v>
       </c>
@@ -3203,14 +3209,14 @@
       <c r="F100">
         <v>50</v>
       </c>
-      <c r="G100" s="6">
+      <c r="H100" s="6">
         <v>36457022.457391247</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9</v>
       </c>
@@ -3229,14 +3235,14 @@
       <c r="F101">
         <v>50</v>
       </c>
-      <c r="G101" s="6">
+      <c r="H101" s="6">
         <v>69725255.78241989</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>10</v>
       </c>
@@ -3255,23 +3261,23 @@
       <c r="F102">
         <v>50</v>
       </c>
-      <c r="G102" s="6">
+      <c r="H102" s="6">
         <v>52521578.300668471</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>36</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>30</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>31</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>10</v>
       </c>
@@ -3285,23 +3291,23 @@
         <v>0.75</v>
       </c>
       <c r="E103">
-        <f>D103*I103</f>
+        <f>D103*J103</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="F103">
         <v>50</v>
       </c>
-      <c r="G103" s="6">
+      <c r="H103" s="6">
         <v>55867214.242692553</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>37</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>10</v>
       </c>
@@ -3320,14 +3326,14 @@
       <c r="F104">
         <v>50</v>
       </c>
-      <c r="G104" s="6">
+      <c r="H104" s="6">
         <v>16650520.47955572</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>10</v>
       </c>
@@ -3346,14 +3352,14 @@
       <c r="F105">
         <v>50</v>
       </c>
-      <c r="G105" s="6">
+      <c r="H105" s="6">
         <v>23946919.912781108</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>10</v>
       </c>
@@ -3372,14 +3378,14 @@
       <c r="F106">
         <v>50</v>
       </c>
-      <c r="G106" s="6">
+      <c r="H106" s="6">
         <v>37945515.360656373</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>10</v>
       </c>
@@ -3398,14 +3404,14 @@
       <c r="F107">
         <v>50</v>
       </c>
-      <c r="G107" s="6">
+      <c r="H107" s="6">
         <v>14436701.630773749</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>10</v>
       </c>
@@ -3424,14 +3430,14 @@
       <c r="F108">
         <v>50</v>
       </c>
-      <c r="G108" s="6">
+      <c r="H108" s="6">
         <v>26723788.404769398</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>10</v>
       </c>
@@ -3450,14 +3456,14 @@
       <c r="F109">
         <v>50</v>
       </c>
-      <c r="G109" s="6">
+      <c r="H109" s="6">
         <v>40568469.932022512</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>10</v>
       </c>
@@ -3476,14 +3482,14 @@
       <c r="F110">
         <v>50</v>
       </c>
-      <c r="G110" s="6">
+      <c r="H110" s="6">
         <v>5282160.2503342098</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>10</v>
       </c>
@@ -3502,14 +3508,14 @@
       <c r="F111">
         <v>50</v>
       </c>
-      <c r="G111" s="6">
+      <c r="H111" s="6">
         <v>16007004.123303911</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>10</v>
       </c>
@@ -3528,14 +3534,14 @@
       <c r="F112">
         <v>50</v>
       </c>
-      <c r="G112" s="6">
+      <c r="H112" s="6">
         <v>32932433.485479731</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>10</v>
       </c>
@@ -3554,14 +3560,14 @@
       <c r="F113">
         <v>50</v>
       </c>
-      <c r="G113" s="6">
+      <c r="H113" s="6">
         <v>48726479.320642039</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>11</v>
       </c>
@@ -3575,26 +3581,26 @@
         <v>0.65</v>
       </c>
       <c r="E114">
-        <f>D114*I114</f>
+        <f>D114*J114</f>
         <v>0.45499999999999996</v>
       </c>
       <c r="F114">
         <v>100</v>
       </c>
-      <c r="G114" s="6">
+      <c r="H114" s="6">
         <v>4773862.2992409104</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>48</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>0.7</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>11</v>
       </c>
@@ -3608,23 +3614,23 @@
         <v>0.65</v>
       </c>
       <c r="E115">
-        <f>D115*I115</f>
+        <f>D115*J115</f>
         <v>0.52</v>
       </c>
       <c r="F115">
         <v>100</v>
       </c>
-      <c r="G115" s="6">
+      <c r="H115" s="6">
         <v>11186619.666127879</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>49</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>0.8</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>11</v>
       </c>
@@ -3638,23 +3644,23 @@
         <v>0.65</v>
       </c>
       <c r="E116">
-        <f t="shared" ref="E116:E119" si="0">D116*I116</f>
+        <f t="shared" ref="E116:E119" si="0">D116*J116</f>
         <v>0.58500000000000008</v>
       </c>
       <c r="F116">
         <v>100</v>
       </c>
-      <c r="G116" s="6">
+      <c r="H116" s="6">
         <v>19722118.821827259</v>
       </c>
-      <c r="H116" t="s">
-        <v>50</v>
-      </c>
-      <c r="I116">
+      <c r="I116" t="s">
+        <v>50</v>
+      </c>
+      <c r="J116">
         <v>0.9</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>12</v>
       </c>
@@ -3674,17 +3680,17 @@
       <c r="F117">
         <v>100</v>
       </c>
-      <c r="G117" s="6">
+      <c r="H117" s="6">
         <v>7154886.4009164404</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>51</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>12</v>
       </c>
@@ -3704,17 +3710,17 @@
       <c r="F118">
         <v>100</v>
       </c>
-      <c r="G118" s="6">
+      <c r="H118" s="6">
         <v>12290407.622097589</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>52</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>0.8</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>12</v>
       </c>
@@ -3734,17 +3740,17 @@
       <c r="F119">
         <v>100</v>
       </c>
-      <c r="G119" s="6">
+      <c r="H119" s="6">
         <v>21215469.400269501</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>53</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>0.9</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>13</v>
       </c>
@@ -3758,17 +3764,17 @@
         <v>0.65</v>
       </c>
       <c r="E120">
-        <f>D120*I120</f>
+        <f>D120*J120</f>
         <v>0.45499999999999996</v>
       </c>
       <c r="F120">
         <v>100</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>0.7</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>13</v>
       </c>
@@ -3782,17 +3788,17 @@
         <v>0.65</v>
       </c>
       <c r="E121">
-        <f>D121*I121</f>
+        <f>D121*J121</f>
         <v>0.48750000000000004</v>
       </c>
       <c r="F121">
         <v>100</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>0.75</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>13</v>
       </c>
@@ -3806,17 +3812,17 @@
         <v>0.65</v>
       </c>
       <c r="E122">
-        <f>D122*I122</f>
+        <f>D122*J122</f>
         <v>0.52</v>
       </c>
       <c r="F122">
         <v>100</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>0.8</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>13</v>
       </c>
@@ -3830,17 +3836,17 @@
         <v>0.65</v>
       </c>
       <c r="E123">
-        <f>D123*I123</f>
+        <f>D123*J123</f>
         <v>0.55249999999999999</v>
       </c>
       <c r="F123">
         <v>100</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>0.85</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>13</v>
       </c>
@@ -3854,17 +3860,17 @@
         <v>0.65</v>
       </c>
       <c r="E124">
-        <f>D124*I124</f>
+        <f>D124*J124</f>
         <v>0.58500000000000008</v>
       </c>
       <c r="F124">
         <v>100</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>0.9</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>13</v>
       </c>
@@ -3878,17 +3884,17 @@
         <v>0.65</v>
       </c>
       <c r="E125">
-        <f t="shared" ref="E125:E130" si="1">D125*I125</f>
+        <f t="shared" ref="E125:E130" si="1">D125*J125</f>
         <v>0.61749999999999994</v>
       </c>
       <c r="F125">
         <v>100</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>0.95</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>14</v>
       </c>
@@ -3908,11 +3914,11 @@
       <c r="F126">
         <v>100</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>0.7</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>14</v>
       </c>
@@ -3932,11 +3938,11 @@
       <c r="F127">
         <v>100</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>0.75</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>14</v>
       </c>
@@ -3956,11 +3962,11 @@
       <c r="F128">
         <v>100</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>14</v>
       </c>
@@ -3980,11 +3986,11 @@
       <c r="F129">
         <v>100</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>0.85</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4004,11 +4010,11 @@
       <c r="F130">
         <v>100</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>14</v>
       </c>
@@ -4022,17 +4028,17 @@
         <v>0.7</v>
       </c>
       <c r="E131">
-        <f>D131*I131</f>
+        <f>D131*J131</f>
         <v>0.66499999999999992</v>
       </c>
       <c r="F131">
         <v>100</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>0.95</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>15</v>
       </c>
@@ -4046,17 +4052,17 @@
         <v>0.7</v>
       </c>
       <c r="E132">
-        <f>D132*I132</f>
+        <f>D132*J132</f>
         <v>0.48999999999999994</v>
       </c>
       <c r="F132">
         <v>100</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>15</v>
       </c>
@@ -4070,17 +4076,17 @@
         <v>0.7</v>
       </c>
       <c r="E133">
-        <f>D133*I133</f>
+        <f>D133*J133</f>
         <v>0.52499999999999991</v>
       </c>
       <c r="F133">
         <v>100</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>0.75</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>15</v>
       </c>
@@ -4094,17 +4100,17 @@
         <v>0.7</v>
       </c>
       <c r="E134">
-        <f>D134*I134</f>
+        <f>D134*J134</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="F134">
         <v>100</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>0.8</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>15</v>
       </c>
@@ -4118,17 +4124,17 @@
         <v>0.7</v>
       </c>
       <c r="E135">
-        <f t="shared" ref="E135:E142" si="2">D135*I135</f>
+        <f t="shared" ref="E135:E142" si="2">D135*J135</f>
         <v>0.59499999999999997</v>
       </c>
       <c r="F135">
         <v>100</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>0.85</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>15</v>
       </c>
@@ -4148,11 +4154,11 @@
       <c r="F136">
         <v>100</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>15</v>
       </c>
@@ -4172,11 +4178,11 @@
       <c r="F137">
         <v>100</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>0.95</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>16</v>
       </c>
@@ -4190,17 +4196,17 @@
         <v>0.75</v>
       </c>
       <c r="E138">
-        <f>D138*I138</f>
+        <f>D138*J138</f>
         <v>0.52499999999999991</v>
       </c>
       <c r="F138">
         <v>100</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>0.7</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>16</v>
       </c>
@@ -4220,11 +4226,11 @@
       <c r="F139">
         <v>100</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>0.75</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>16</v>
       </c>
@@ -4244,11 +4250,11 @@
       <c r="F140">
         <v>100</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>0.8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>16</v>
       </c>
@@ -4268,11 +4274,11 @@
       <c r="F141">
         <v>100</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>0.85</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>16</v>
       </c>
@@ -4292,11 +4298,11 @@
       <c r="F142">
         <v>100</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>16</v>
       </c>
@@ -4310,17 +4316,17 @@
         <v>0.75</v>
       </c>
       <c r="E143">
-        <f>D143*I143</f>
+        <f>D143*J143</f>
         <v>0.71249999999999991</v>
       </c>
       <c r="F143">
         <v>100</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>0.95</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>17</v>
       </c>
@@ -4334,17 +4340,17 @@
         <v>0.7</v>
       </c>
       <c r="E144">
-        <f>D144*I144</f>
+        <f>D144*J144</f>
         <v>0.52499999999999991</v>
       </c>
       <c r="F144">
         <v>100</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>17</v>
       </c>
@@ -4358,17 +4364,17 @@
         <v>0.7</v>
       </c>
       <c r="E145">
-        <f t="shared" ref="E145:E150" si="3">D145*I145</f>
+        <f t="shared" ref="E145:E150" si="3">D145*J145</f>
         <v>0.59499999999999997</v>
       </c>
       <c r="F145">
         <v>100</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>17</v>
       </c>
@@ -4388,11 +4394,11 @@
       <c r="F146">
         <v>100</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>0.95</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>17</v>
       </c>
@@ -4412,11 +4418,11 @@
       <c r="F147">
         <v>100</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>0.75</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>17</v>
       </c>
@@ -4436,11 +4442,11 @@
       <c r="F148">
         <v>100</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>0.85</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>17</v>
       </c>
@@ -4460,11 +4466,11 @@
       <c r="F149">
         <v>100</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>0.95</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>18</v>
       </c>
@@ -4484,11 +4490,11 @@
       <c r="F150">
         <v>100</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>0.75</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>18</v>
       </c>
@@ -4502,17 +4508,17 @@
         <v>0.8</v>
       </c>
       <c r="E151">
-        <f>D151*I151</f>
+        <f>D151*J151</f>
         <v>0.68</v>
       </c>
       <c r="F151">
         <v>100</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>0.85</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>18</v>
       </c>
@@ -4526,17 +4532,17 @@
         <v>0.8</v>
       </c>
       <c r="E152">
-        <f>D152*I152</f>
+        <f>D152*J152</f>
         <v>0.76</v>
       </c>
       <c r="F152">
         <v>100</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>0.95</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>18</v>
       </c>
@@ -4550,17 +4556,17 @@
         <v>0.7</v>
       </c>
       <c r="E153">
-        <f t="shared" ref="E153:E161" si="4">D153*I153</f>
+        <f t="shared" ref="E153:E161" si="4">D153*J153</f>
         <v>0.52499999999999991</v>
       </c>
       <c r="F153">
         <v>100</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>0.75</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>18</v>
       </c>
@@ -4580,11 +4586,11 @@
       <c r="F154">
         <v>100</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>0.85</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>18</v>
       </c>
@@ -4604,11 +4610,11 @@
       <c r="F155">
         <v>100</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>0.95</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>19</v>
       </c>
@@ -4628,11 +4634,11 @@
       <c r="F156">
         <v>100</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>0.85</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>19</v>
       </c>
@@ -4652,11 +4658,11 @@
       <c r="F157">
         <v>100</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>0.95</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>19</v>
       </c>
@@ -4676,11 +4682,11 @@
       <c r="F158">
         <v>100</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>0.75</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>19</v>
       </c>
@@ -4700,11 +4706,11 @@
       <c r="F159">
         <v>100</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>0.95</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>19</v>
       </c>
@@ -4724,11 +4730,11 @@
       <c r="F160">
         <v>100</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>0.75</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>19</v>
       </c>
@@ -4748,11 +4754,11 @@
       <c r="F161">
         <v>100</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>0.85</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>20</v>
       </c>
@@ -4766,17 +4772,17 @@
         <v>0.7</v>
       </c>
       <c r="E162">
-        <f>D162*I162</f>
+        <f>D162*J162</f>
         <v>0.66499999999999992</v>
       </c>
       <c r="F162">
         <v>100</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>0.95</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>20</v>
       </c>
@@ -4790,17 +4796,17 @@
         <v>0.75</v>
       </c>
       <c r="E163">
-        <f>D163*I163</f>
+        <f>D163*J163</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="F163">
         <v>100</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>0.8</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>20</v>
       </c>
@@ -4814,17 +4820,17 @@
         <v>0.75</v>
       </c>
       <c r="E164">
-        <f t="shared" ref="E164:E173" si="5">D164*I164</f>
+        <f t="shared" ref="E164:E173" si="5">D164*J164</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="F164">
         <v>100</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>0.9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>20</v>
       </c>
@@ -4844,11 +4850,11 @@
       <c r="F165">
         <v>100</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>0.95</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>20</v>
       </c>
@@ -4868,11 +4874,11 @@
       <c r="F166">
         <v>100</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>0.85</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>20</v>
       </c>
@@ -4892,11 +4898,11 @@
       <c r="F167">
         <v>100</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>0.95</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>21</v>
       </c>
@@ -4916,11 +4922,11 @@
       <c r="F168">
         <v>100</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>0.75</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>21</v>
       </c>
@@ -4940,11 +4946,11 @@
       <c r="F169">
         <v>100</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>0.85</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>21</v>
       </c>
@@ -4964,11 +4970,11 @@
       <c r="F170">
         <v>100</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>0.95</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>21</v>
       </c>
@@ -4988,11 +4994,11 @@
       <c r="F171">
         <v>100</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>0.75</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>21</v>
       </c>
@@ -5012,11 +5018,11 @@
       <c r="F172">
         <v>100</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>0.85</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>21</v>
       </c>
@@ -5036,11 +5042,11 @@
       <c r="F173">
         <v>100</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>0.95</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>22</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>22</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>22</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>0.45</v>
       </c>
       <c r="E207">
-        <f>D207*I207</f>
+        <f>D207*J207</f>
         <v>0</v>
       </c>
       <c r="F207">
@@ -5741,7 +5747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>27</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>28</v>
       </c>
@@ -5775,14 +5781,14 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E210">
-        <f>D210*I210</f>
+        <f>D210*J210</f>
         <v>0</v>
       </c>
       <c r="F210">
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>28</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>28</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>28</v>
       </c>
@@ -5842,7 +5848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>28</v>
       </c>
@@ -5862,7 +5868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>28</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>29</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>29</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>29</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>29</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>29</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>29</v>
       </c>
@@ -6000,6 +6006,535 @@
       </c>
       <c r="F221">
         <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>30</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>-6</v>
+      </c>
+      <c r="D222">
+        <v>0.25</v>
+      </c>
+      <c r="E222">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F222">
+        <v>50</v>
+      </c>
+      <c r="G222">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>30</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>-6</v>
+      </c>
+      <c r="D223">
+        <v>0.25</v>
+      </c>
+      <c r="E223">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F223">
+        <v>50</v>
+      </c>
+      <c r="G223">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>30</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>-6</v>
+      </c>
+      <c r="D224">
+        <v>0.25</v>
+      </c>
+      <c r="E224">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F224">
+        <v>50</v>
+      </c>
+      <c r="G224">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>30</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>-6</v>
+      </c>
+      <c r="D225">
+        <v>0.25</v>
+      </c>
+      <c r="E225">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F225">
+        <v>50</v>
+      </c>
+      <c r="G225">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>30</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>-6</v>
+      </c>
+      <c r="D226">
+        <v>0.25</v>
+      </c>
+      <c r="E226">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F226">
+        <v>50</v>
+      </c>
+      <c r="G226">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>30</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>-6</v>
+      </c>
+      <c r="D227">
+        <v>0.25</v>
+      </c>
+      <c r="E227">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F227">
+        <v>50</v>
+      </c>
+      <c r="G227">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>31</v>
+      </c>
+      <c r="B228">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>-6</v>
+      </c>
+      <c r="D228">
+        <v>0.25</v>
+      </c>
+      <c r="E228">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F228">
+        <v>50</v>
+      </c>
+      <c r="G228">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>31</v>
+      </c>
+      <c r="B229">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>-6</v>
+      </c>
+      <c r="D229">
+        <v>0.25</v>
+      </c>
+      <c r="E229">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F229">
+        <v>50</v>
+      </c>
+      <c r="G229">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>31</v>
+      </c>
+      <c r="B230">
+        <v>9</v>
+      </c>
+      <c r="C230">
+        <v>-6</v>
+      </c>
+      <c r="D230">
+        <v>0.25</v>
+      </c>
+      <c r="E230">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F230">
+        <v>50</v>
+      </c>
+      <c r="G230">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>31</v>
+      </c>
+      <c r="B231">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>-6</v>
+      </c>
+      <c r="D231">
+        <v>0.25</v>
+      </c>
+      <c r="E231">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F231">
+        <v>50</v>
+      </c>
+      <c r="G231">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>31</v>
+      </c>
+      <c r="B232">
+        <v>11</v>
+      </c>
+      <c r="C232">
+        <v>-6</v>
+      </c>
+      <c r="D232">
+        <v>0.25</v>
+      </c>
+      <c r="E232">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F232">
+        <v>50</v>
+      </c>
+      <c r="G232">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>31</v>
+      </c>
+      <c r="B233">
+        <v>12</v>
+      </c>
+      <c r="C233">
+        <v>-6</v>
+      </c>
+      <c r="D233">
+        <v>0.25</v>
+      </c>
+      <c r="E233">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F233">
+        <v>50</v>
+      </c>
+      <c r="G233">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>32</v>
+      </c>
+      <c r="B234">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>-6</v>
+      </c>
+      <c r="D234">
+        <v>0.25</v>
+      </c>
+      <c r="E234">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F234">
+        <v>50</v>
+      </c>
+      <c r="G234">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>32</v>
+      </c>
+      <c r="B235">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <v>-6</v>
+      </c>
+      <c r="D235">
+        <v>0.25</v>
+      </c>
+      <c r="E235">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F235">
+        <v>50</v>
+      </c>
+      <c r="G235">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>32</v>
+      </c>
+      <c r="B236">
+        <v>15</v>
+      </c>
+      <c r="C236">
+        <v>-6</v>
+      </c>
+      <c r="D236">
+        <v>0.25</v>
+      </c>
+      <c r="E236">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F236">
+        <v>50</v>
+      </c>
+      <c r="G236">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>32</v>
+      </c>
+      <c r="B237">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>-6</v>
+      </c>
+      <c r="D237">
+        <v>0.25</v>
+      </c>
+      <c r="E237">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F237">
+        <v>50</v>
+      </c>
+      <c r="G237">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>32</v>
+      </c>
+      <c r="B238">
+        <v>17</v>
+      </c>
+      <c r="C238">
+        <v>-6</v>
+      </c>
+      <c r="D238">
+        <v>0.25</v>
+      </c>
+      <c r="E238">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F238">
+        <v>50</v>
+      </c>
+      <c r="G238">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>33</v>
+      </c>
+      <c r="B239">
+        <v>18</v>
+      </c>
+      <c r="C239">
+        <v>-6</v>
+      </c>
+      <c r="D239">
+        <v>0.25</v>
+      </c>
+      <c r="E239">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F239">
+        <v>50</v>
+      </c>
+      <c r="G239">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>33</v>
+      </c>
+      <c r="B240">
+        <v>19</v>
+      </c>
+      <c r="C240">
+        <v>-6</v>
+      </c>
+      <c r="D240">
+        <v>0.25</v>
+      </c>
+      <c r="E240">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F240">
+        <v>50</v>
+      </c>
+      <c r="G240">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>33</v>
+      </c>
+      <c r="B241">
+        <v>20</v>
+      </c>
+      <c r="C241">
+        <v>-6</v>
+      </c>
+      <c r="D241">
+        <v>0.25</v>
+      </c>
+      <c r="E241">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F241">
+        <v>50</v>
+      </c>
+      <c r="G241">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>33</v>
+      </c>
+      <c r="B242">
+        <v>21</v>
+      </c>
+      <c r="C242">
+        <v>-6</v>
+      </c>
+      <c r="D242">
+        <v>0.25</v>
+      </c>
+      <c r="E242">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F242">
+        <v>50</v>
+      </c>
+      <c r="G242">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>33</v>
+      </c>
+      <c r="B243">
+        <v>22</v>
+      </c>
+      <c r="C243">
+        <v>-6</v>
+      </c>
+      <c r="D243">
+        <v>0.25</v>
+      </c>
+      <c r="E243">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F243">
+        <v>50</v>
+      </c>
+      <c r="G243">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>33</v>
+      </c>
+      <c r="B244">
+        <v>23</v>
+      </c>
+      <c r="C244">
+        <v>-6</v>
+      </c>
+      <c r="D244">
+        <v>0.25</v>
+      </c>
+      <c r="E244">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F244">
+        <v>50</v>
+      </c>
+      <c r="G244">
+        <v>1.15E-2</v>
       </c>
     </row>
   </sheetData>

--- a/qkd_simulation_inputs.xlsx
+++ b/qkd_simulation_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4653AEBC-70BC-47C1-BE01-1817DCA821D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27458F-ADF0-4552-80ED-133C7161102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="191">
   <si>
     <t>Run ID</t>
   </si>
@@ -315,6 +315,297 @@
   </si>
   <si>
     <t>amplitude</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.65', '0.48750000000000004', '0.92', '0.98', '1', '1', '[2790741.70768619]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.52', '0.04', '0.98', '1', '1', '[5907699.17514012]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.5525', '0.04', '0.98', '1', '1', '[7712701.39141488]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.5850000000000001', '0.04', '0.98', '1', '1', '[9095056.9684392]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.65', '0.6174999999999999', '0.04', '0.98', '1', '1', '[12346212.49666611]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.48999999999999994', '0.06', '0.98', '1', '1', '[2791045.38280319]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5249999999999999', '0.04', '0.98', '1', '1', '[4086295.95231192]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5599999999999999', '0.04', '0.98', '1', '1', '[6467744.68583642]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.595', '0.02', '0.98', '1', '1', '[7921114.60594838]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.63', '0.04', '0.98', '1', '1', '[8973498.06130104]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.6649999999999999', '0.04', '0.98', '1', '1', '[13183639.88653612]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.48999999999999994', '0.04', '0.8200000000000001', '1', '1', '[1085337.93621634]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.7', '0.5249999999999999', '0.86', '0.98', '1', '1', '[1251584.83032719]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5599999999999999', '0.04', '0.98', '1', '1', '[2578668.07155127]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.595', '0.02', '0.02', '1', '1', '[73124.31129316]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.63', '0.04', '0.98', '1', '1', '[4132773.0232138]']</t>
+  </si>
+  <si>
+    <t>['100000000.0', '0.75', '0.5249999999999999', '0.06', '0.98', '1', '1', '[866638.15342673]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.75', '0.5625', '0.13999999999999999', '0.98', '1', '1', '[2023298.32303973]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.6000000000000001', '0.02', '0.98', '1', '1', '[2760279.1596652]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.75', '0.675', '0.1', '0.98', '1', '1', '[5120317.47888872]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.7124999999999999', '0.04', '0.98', '1', '1', '[7088699.88764356]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.595', '0.06', '0.98', '1', '1', '[1855411.94032988]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.7', '0.6649999999999999', '0.9400000000000001', '0.98', '1', '1', '[2424359.16040842]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.75', '0.5625', '0.04', '0.98', '1', '1', '[1052286.59875934]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.6375', '0.04', '0.98', '1', '1', '[1696699.56393732]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.7124999999999999', '0.1', '0.9600000000000001', '1', '1', '[3466312.48636942]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.8', '0.6000000000000001', '0.9400000000000001', '0.98', '1', '1', '[763400.26263165]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.8', '0.76', '0.04', '0.98', '1', '1', '[3333923.34233929]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5249999999999999', '0.04', '0.98', '1', '1', '[865765.13463393]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.8', '0.76', '0.9600000000000001', '0.98', '1', '1', '[1176944.74057094]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.6649999999999999', '0.02', '0.98', '1', '1', '[28205086.99655531]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.6000000000000001', '0.04', '0.98', '1', '1', '[14063596.90917895]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.675', '0.04', '0.98', '1', '1', '[21748784.38082191]']</t>
+  </si>
+  <si>
+    <t>['100000000.0', '0.75', '0.7124999999999999', '0.06', '0.98', '1', '1', '[26925871.01734769]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.8', '0.68', '0.04', '0.98', '1', '1', '[19454136.91947344]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.8', '0.76', '0.04', '0.98', '1', '1', '[30818038.0316668]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.85', '0.6375', '0.04', '0.98', '1', '1', '[11276316.50076015]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.85', '0.7224999999999999', '0.04', '0.98', '1', '1', '[19275984.81214102]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.85', '0.8075', '0.04', '0.98', '1', '1', '[34069888.26172119]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.9', '0.675', '0.04', '0.98', '1', '1', '[11741453.36082117]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.9', '0.765', '0.12000000000000001', '0.98', '1', '1', '[20430025.39394975]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.9', '0.855', '0.04', '0.98', '1', '1', '[34772780.32430596]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.595', '0.04', '0.98', '1', '1', '[988700.02645013]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.75', '0.7124999999999999', '0.06', '0.98', '1', '1', '[1697046.70960667]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.8', '0.6000000000000001', '0.04', '0.98', '1', '1', '[604560.3218153]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.12', '0.04', '0.98', '1', '1', '[76778363.84470157]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.13', '0.125', '0.04', '0.98', '1', '1', '[85966582.93366075]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.1', '0.07', '0.04', '0.98', '1', '1', '[15567527.10985058]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.125', '0.09', '0.06', '0.98', '1', '1', '[13509591.87691369]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.125', '0.11', '0.04', '0.98', '1', '1', '[37748263.81917106]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.125', '0.12', '0.04', '0.98', '1', '1', '[53802579.97014533]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.135', '0.09', '0.06', '0.98', '1', '1', '[8468590.7782411]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.135', '0.11', '0.04', '0.98', '1', '1', '[27779164.83330936]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.135', '0.13', '0.04', '0.98', '1', '1', '[61910396.68301073]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.145', '0.1', '0.04', '0.98', '1', '1', '[13349984.58325516]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.145', '0.12', '0.04', '0.98', '1', '1', '[31750575.62438806]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.145', '0.14', '0.04', '0.98', '1', '1', '[63477767.90581384]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.1', '0.04', '0.98', '1', '1', '[10265972.31047645]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.12', '0.04', '0.98', '1', '1', '[25527911.94881733]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.14', '0.04', '0.98', '1', '1', '[53211673.73301584]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.155', '0.15', '0.02', '0.98', '1', '1', '[71398591.33155718]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.12', '0.095', '0.06', '0.98', '1', '1', '[34856499.19269983]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.13', '0.04', '0.98', '1', '1', '[28619398.20177082]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.165', '0.145', '0.12000000000000001', '0.98', '1', '1', '[50140801.22501084]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.155', '0.04', '0.98', '1', '1', '[65141922.28507562]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.165', '0.16', '0.04', '0.98', '1', '1', '[73463236.69358793]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.11', '0.06', '0.98', '1', '1', '[4132792.47954897]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.13', '0.04', '0.98', '1', '1', '[19546809.69011595]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.145', '0.06', '0.98', '1', '1', '[39632459.98803994]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.155', '0.04', '0.98', '1', '1', '[53799967.91181806]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.175', '0.16', '0.04', '0.98', '1', '1', '[59117119.84928833]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.35', '0.33', '0.04', '0.98', '1', '1', '[68585347.67273265]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.6', '0.5', '0.04', '0.98', '1', '1', '[35294023.76040883]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.6', '0.55', '0.04', '0.98', '1', '1', '[52934930.11015965]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.45', '0.04', '0.98', '1', '1', '[7470797.29321635]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.5', '0.04', '0.98', '1', '1', '[16190325.00615898]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.6', '0.04', '0.98', '1', '1', '[47608173.42544836]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.7', '0.65', '0.04', '0.98', '1', '1', '[65121501.28344342]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.1', '0.9600000000000001', '1', '1', '[9372508.71479621]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.06', '0.98', '1', '1', '[9741142.44723802]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.04', '0.9600000000000001', '1', '1', '[8323901.89779518]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.08', '0.98', '1', '1', '[8858572.88072735]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.06', '0.98', '1', '1', '[10863102.57867347]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.04', '0.98', '1', '1', '[10048243.7396656]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.04', '0.98', '1', '1', '[10184764.78628446]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.06', '0.98', '1', '1', '[10307223.26859055]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.06', '0.98', '1', '1', '[9057466.79669009]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.1', '0.98', '1', '1', '[8472921.69585272]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.06', '0.98', '1', '1', '[10568922.55516365]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.1', '0.98', '1', '1', '[9738465.36991262]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.25', '0.175', '0.02', '0.04', '1', '1', '[167790.83309032]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.12000000000000001', '0.9600000000000001', '1', '1', '[8597136.44405178]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.16', '0.98', '1', '1', '[7472319.74020575]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.06', '0.98', '1', '1', '[9088296.71882157]']</t>
+  </si>
+  <si>
+    <t>['1000000000.0', '0.25', '0.175', '0.16', '0.9400000000000001', '1', '1', '[8162104.48007434]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.25', '0.175', '0.1', '0.06', '1', '1', '[541434.5742035]']</t>
+  </si>
+  <si>
+    <t>['10000000.0', '0.25', '0.175', '0.04', '0.08', '1', '1', '[610615.527191]']</t>
   </si>
 </sst>
 </file>
@@ -338,12 +629,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -393,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -409,6 +706,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -715,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245:F256"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1883,7 +2182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1909,7 +2208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1932,7 +2231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1955,7 +2254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1978,7 +2277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2001,7 +2300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2024,7 +2323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2047,7 +2346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2073,7 +2372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2099,7 +2398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2125,33 +2424,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="7">
         <v>5</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="7">
         <v>2</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="7">
         <v>-1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="7">
         <v>0.13</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>0.125</v>
       </c>
-      <c r="F59">
-        <v>50</v>
-      </c>
-      <c r="H59" s="6">
+      <c r="F59" s="7">
+        <v>50</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8">
         <v>65388060.125653706</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -2177,7 +2478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2200,7 +2501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2226,7 +2527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2252,7 +2553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2712,30 +3013,32 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82">
+      <c r="A82" s="7">
         <v>8</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="7">
         <v>25</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="7">
         <v>-3</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="7">
         <v>0.155</v>
       </c>
-      <c r="F82">
-        <v>50</v>
-      </c>
-      <c r="H82" s="6">
+      <c r="F82" s="7">
+        <v>50</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8">
         <v>55675055.644134298</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="K82" s="7"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
@@ -2915,6 +3218,7 @@
       <c r="I89" t="s">
         <v>81</v>
       </c>
+      <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
@@ -3217,30 +3521,32 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>9</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="7">
         <v>12</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="7">
         <v>-6</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="7">
         <v>0.5</v>
       </c>
-      <c r="F101">
-        <v>50</v>
-      </c>
-      <c r="H101" s="6">
+      <c r="F101" s="7">
+        <v>50</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8">
         <v>69725255.78241989</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="K101" s="7"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
@@ -3267,7 +3573,7 @@
       <c r="I102" t="s">
         <v>36</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L102" t="s">
@@ -3306,6 +3612,7 @@
       <c r="J103">
         <v>0.8</v>
       </c>
+      <c r="K103" s="7"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
@@ -3542,30 +3849,32 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>10</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="7">
         <v>24</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="7">
         <v>-9</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="7">
         <v>0.7</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="7">
         <v>0.65</v>
       </c>
-      <c r="F113">
-        <v>50</v>
-      </c>
-      <c r="H113" s="6">
+      <c r="F113" s="7">
+        <v>50</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8">
         <v>48726479.320642039</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="K113" s="7"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
@@ -3721,34 +4030,36 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>12</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="7">
         <v>6</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="7">
         <v>-12</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="7">
         <v>0.7</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="7">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="7">
         <v>100</v>
       </c>
-      <c r="H119" s="6">
+      <c r="G119" s="7"/>
+      <c r="H119" s="8">
         <v>21215469.400269501</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J119">
         <v>0.9</v>
       </c>
+      <c r="K119" s="7"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
@@ -3770,6 +4081,9 @@
       <c r="F120">
         <v>100</v>
       </c>
+      <c r="H120" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J120">
         <v>0.7</v>
       </c>
@@ -3794,6 +4108,12 @@
       <c r="F121">
         <v>100</v>
       </c>
+      <c r="H121" s="6">
+        <v>2790741.70768619</v>
+      </c>
+      <c r="I121" t="s">
+        <v>94</v>
+      </c>
       <c r="J121">
         <v>0.75</v>
       </c>
@@ -3818,6 +4138,12 @@
       <c r="F122">
         <v>100</v>
       </c>
+      <c r="H122" s="6">
+        <v>5907699.1751401201</v>
+      </c>
+      <c r="I122" t="s">
+        <v>95</v>
+      </c>
       <c r="J122">
         <v>0.8</v>
       </c>
@@ -3842,6 +4168,12 @@
       <c r="F123">
         <v>100</v>
       </c>
+      <c r="H123" s="6">
+        <v>7712701.3914148798</v>
+      </c>
+      <c r="I123" t="s">
+        <v>96</v>
+      </c>
       <c r="J123">
         <v>0.85</v>
       </c>
@@ -3866,6 +4198,12 @@
       <c r="F124">
         <v>100</v>
       </c>
+      <c r="H124" s="6">
+        <v>9095056.9684392009</v>
+      </c>
+      <c r="I124" t="s">
+        <v>97</v>
+      </c>
       <c r="J124">
         <v>0.9</v>
       </c>
@@ -3890,6 +4228,12 @@
       <c r="F125">
         <v>100</v>
       </c>
+      <c r="H125" s="6">
+        <v>12346212.496666109</v>
+      </c>
+      <c r="I125" t="s">
+        <v>98</v>
+      </c>
       <c r="J125">
         <v>0.95</v>
       </c>
@@ -3914,6 +4258,12 @@
       <c r="F126">
         <v>100</v>
       </c>
+      <c r="H126" s="6">
+        <v>2791045.38280319</v>
+      </c>
+      <c r="I126" t="s">
+        <v>99</v>
+      </c>
       <c r="J126">
         <v>0.7</v>
       </c>
@@ -3938,6 +4288,12 @@
       <c r="F127">
         <v>100</v>
       </c>
+      <c r="H127" s="6">
+        <v>4086295.95231192</v>
+      </c>
+      <c r="I127" t="s">
+        <v>100</v>
+      </c>
       <c r="J127">
         <v>0.75</v>
       </c>
@@ -3962,11 +4318,17 @@
       <c r="F128">
         <v>100</v>
       </c>
+      <c r="H128" s="6">
+        <v>6467744.6858364204</v>
+      </c>
+      <c r="I128" t="s">
+        <v>101</v>
+      </c>
       <c r="J128">
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>14</v>
       </c>
@@ -3986,11 +4348,17 @@
       <c r="F129">
         <v>100</v>
       </c>
+      <c r="H129" s="6">
+        <v>7921114.6059483802</v>
+      </c>
+      <c r="I129" t="s">
+        <v>102</v>
+      </c>
       <c r="J129">
         <v>0.85</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4010,35 +4378,50 @@
       <c r="F130">
         <v>100</v>
       </c>
+      <c r="H130" s="6">
+        <v>8973498.0613010395</v>
+      </c>
+      <c r="I130" t="s">
+        <v>103</v>
+      </c>
       <c r="J130">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131">
+      <c r="K130" s="7"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="7">
         <v>14</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="7">
         <v>12</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="7">
         <v>-15</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="7">
         <v>0.7</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="7">
         <f>D131*J131</f>
         <v>0.66499999999999992</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="7">
         <v>100</v>
       </c>
-      <c r="J131">
+      <c r="G131" s="7"/>
+      <c r="H131" s="8">
+        <v>13183639.88653612</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J131" s="7">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K131" s="7"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>15</v>
       </c>
@@ -4058,11 +4441,17 @@
       <c r="F132">
         <v>100</v>
       </c>
+      <c r="H132" s="6">
+        <v>1085337.9362163399</v>
+      </c>
+      <c r="I132" t="s">
+        <v>105</v>
+      </c>
       <c r="J132">
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>15</v>
       </c>
@@ -4082,11 +4471,17 @@
       <c r="F133">
         <v>100</v>
       </c>
+      <c r="H133" s="6">
+        <v>1251584.83032719</v>
+      </c>
+      <c r="I133" t="s">
+        <v>106</v>
+      </c>
       <c r="J133">
         <v>0.75</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>15</v>
       </c>
@@ -4106,11 +4501,17 @@
       <c r="F134">
         <v>100</v>
       </c>
+      <c r="H134" s="6">
+        <v>2578668.0715512699</v>
+      </c>
+      <c r="I134" t="s">
+        <v>107</v>
+      </c>
       <c r="J134">
         <v>0.8</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>15</v>
       </c>
@@ -4130,11 +4531,17 @@
       <c r="F135">
         <v>100</v>
       </c>
+      <c r="H135" s="6">
+        <v>73124.311293160004</v>
+      </c>
+      <c r="I135" t="s">
+        <v>108</v>
+      </c>
       <c r="J135">
         <v>0.85</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>15</v>
       </c>
@@ -4154,11 +4561,17 @@
       <c r="F136">
         <v>100</v>
       </c>
+      <c r="H136" s="6">
+        <v>4132773.0232138</v>
+      </c>
+      <c r="I136" t="s">
+        <v>109</v>
+      </c>
       <c r="J136">
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>15</v>
       </c>
@@ -4178,11 +4591,14 @@
       <c r="F137">
         <v>100</v>
       </c>
+      <c r="H137" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J137">
         <v>0.95</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>16</v>
       </c>
@@ -4202,11 +4618,17 @@
       <c r="F138">
         <v>100</v>
       </c>
+      <c r="H138" s="6">
+        <v>866638.15342672996</v>
+      </c>
+      <c r="I138" t="s">
+        <v>110</v>
+      </c>
       <c r="J138">
         <v>0.7</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>16</v>
       </c>
@@ -4226,11 +4648,17 @@
       <c r="F139">
         <v>100</v>
       </c>
+      <c r="H139" s="6">
+        <v>2023298.3230397301</v>
+      </c>
+      <c r="I139" t="s">
+        <v>111</v>
+      </c>
       <c r="J139">
         <v>0.75</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>16</v>
       </c>
@@ -4250,11 +4678,17 @@
       <c r="F140">
         <v>100</v>
       </c>
+      <c r="H140" s="6">
+        <v>2760279.1596651999</v>
+      </c>
+      <c r="I140" t="s">
+        <v>112</v>
+      </c>
       <c r="J140">
         <v>0.8</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>16</v>
       </c>
@@ -4274,11 +4708,14 @@
       <c r="F141">
         <v>100</v>
       </c>
+      <c r="H141" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J141">
         <v>0.85</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>16</v>
       </c>
@@ -4298,35 +4735,49 @@
       <c r="F142">
         <v>100</v>
       </c>
+      <c r="H142" s="6">
+        <v>5120317.4788887203</v>
+      </c>
+      <c r="I142" t="s">
+        <v>113</v>
+      </c>
       <c r="J142">
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" s="7">
         <v>16</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="7">
         <v>24</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="7">
         <v>-18</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="7">
         <v>0.75</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="7">
         <f>D143*J143</f>
         <v>0.71249999999999991</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="7">
         <v>100</v>
       </c>
-      <c r="J143">
+      <c r="G143" s="7"/>
+      <c r="H143" s="8">
+        <v>7088699.8876435598</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J143" s="7">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K143" s="7"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>17</v>
       </c>
@@ -4346,11 +4797,14 @@
       <c r="F144">
         <v>100</v>
       </c>
+      <c r="H144" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>17</v>
       </c>
@@ -4370,11 +4824,17 @@
       <c r="F145">
         <v>100</v>
       </c>
+      <c r="H145" s="6">
+        <v>1855411.94032988</v>
+      </c>
+      <c r="I145" t="s">
+        <v>115</v>
+      </c>
       <c r="J145">
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>17</v>
       </c>
@@ -4394,11 +4854,17 @@
       <c r="F146">
         <v>100</v>
       </c>
+      <c r="H146" s="6">
+        <v>2424359.16040842</v>
+      </c>
+      <c r="I146" t="s">
+        <v>116</v>
+      </c>
       <c r="J146">
         <v>0.95</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>17</v>
       </c>
@@ -4418,11 +4884,17 @@
       <c r="F147">
         <v>100</v>
       </c>
+      <c r="H147" s="6">
+        <v>1052286.5987593399</v>
+      </c>
+      <c r="I147" t="s">
+        <v>117</v>
+      </c>
       <c r="J147">
         <v>0.75</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>17</v>
       </c>
@@ -4442,35 +4914,49 @@
       <c r="F148">
         <v>100</v>
       </c>
+      <c r="H148" s="6">
+        <v>1696699.5639373199</v>
+      </c>
+      <c r="I148" t="s">
+        <v>118</v>
+      </c>
       <c r="J148">
         <v>0.85</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" s="7">
         <v>17</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="7">
         <v>30</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="7">
         <v>-21</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="7">
         <v>0.75</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="7">
         <f t="shared" si="3"/>
         <v>0.71249999999999991</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="7">
         <v>100</v>
       </c>
-      <c r="J149">
+      <c r="G149" s="7"/>
+      <c r="H149" s="8">
+        <v>3466312.4863694198</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J149" s="7">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>18</v>
       </c>
@@ -4490,11 +4976,17 @@
       <c r="F150">
         <v>100</v>
       </c>
+      <c r="H150" s="6">
+        <v>763400.26263164997</v>
+      </c>
+      <c r="I150" t="s">
+        <v>120</v>
+      </c>
       <c r="J150">
         <v>0.75</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>18</v>
       </c>
@@ -4514,11 +5006,14 @@
       <c r="F151">
         <v>100</v>
       </c>
+      <c r="H151" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J151">
         <v>0.85</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>18</v>
       </c>
@@ -4538,11 +5033,17 @@
       <c r="F152">
         <v>100</v>
       </c>
+      <c r="H152" s="6">
+        <v>3333923.3423392898</v>
+      </c>
+      <c r="I152" t="s">
+        <v>121</v>
+      </c>
       <c r="J152">
         <v>0.95</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>18</v>
       </c>
@@ -4562,11 +5063,17 @@
       <c r="F153">
         <v>100</v>
       </c>
+      <c r="H153" s="6">
+        <v>865765.13463393005</v>
+      </c>
+      <c r="I153" t="s">
+        <v>122</v>
+      </c>
       <c r="J153">
         <v>0.75</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>18</v>
       </c>
@@ -4586,11 +5093,14 @@
       <c r="F154">
         <v>100</v>
       </c>
+      <c r="H154" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J154">
         <v>0.85</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>18</v>
       </c>
@@ -4610,11 +5120,17 @@
       <c r="F155">
         <v>100</v>
       </c>
+      <c r="H155" s="6">
+        <v>1176944.7405709401</v>
+      </c>
+      <c r="I155" t="s">
+        <v>123</v>
+      </c>
       <c r="J155">
         <v>0.95</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>19</v>
       </c>
@@ -4634,11 +5150,17 @@
       <c r="F156">
         <v>100</v>
       </c>
+      <c r="H156" s="6">
+        <v>988700.02645013004</v>
+      </c>
+      <c r="I156" t="s">
+        <v>136</v>
+      </c>
       <c r="J156">
         <v>0.85</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>19</v>
       </c>
@@ -4658,11 +5180,14 @@
       <c r="F157">
         <v>100</v>
       </c>
+      <c r="H157" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J157">
         <v>0.95</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>19</v>
       </c>
@@ -4682,35 +5207,46 @@
       <c r="F158">
         <v>100</v>
       </c>
+      <c r="H158" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J158">
         <v>0.75</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" s="7">
         <v>19</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="7">
         <v>40</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="7">
         <v>-24</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="7">
         <v>0.75</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="7">
         <f t="shared" si="4"/>
         <v>0.71249999999999991</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="7">
         <v>100</v>
       </c>
-      <c r="J159">
+      <c r="G159" s="7"/>
+      <c r="H159" s="8">
+        <v>1697046.7096066701</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J159" s="7">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>19</v>
       </c>
@@ -4730,6 +5266,12 @@
       <c r="F160">
         <v>100</v>
       </c>
+      <c r="H160" s="6">
+        <v>604560.32181530003</v>
+      </c>
+      <c r="I160" t="s">
+        <v>138</v>
+      </c>
       <c r="J160">
         <v>0.75</v>
       </c>
@@ -4754,6 +5296,9 @@
       <c r="F161">
         <v>100</v>
       </c>
+      <c r="H161" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J161">
         <v>0.85</v>
       </c>
@@ -4778,6 +5323,12 @@
       <c r="F162">
         <v>100</v>
       </c>
+      <c r="H162" s="6">
+        <v>28205086.99655531</v>
+      </c>
+      <c r="I162" t="s">
+        <v>124</v>
+      </c>
       <c r="J162">
         <v>0.95</v>
       </c>
@@ -4802,6 +5353,12 @@
       <c r="F163">
         <v>100</v>
       </c>
+      <c r="H163" s="6">
+        <v>14063596.90917895</v>
+      </c>
+      <c r="I163" t="s">
+        <v>125</v>
+      </c>
       <c r="J163">
         <v>0.8</v>
       </c>
@@ -4826,6 +5383,12 @@
       <c r="F164">
         <v>100</v>
       </c>
+      <c r="H164" s="6">
+        <v>21748784.38082191</v>
+      </c>
+      <c r="I164" t="s">
+        <v>126</v>
+      </c>
       <c r="J164">
         <v>0.9</v>
       </c>
@@ -4850,6 +5413,12 @@
       <c r="F165">
         <v>100</v>
       </c>
+      <c r="H165" s="6">
+        <v>26925871.01734769</v>
+      </c>
+      <c r="I165" t="s">
+        <v>127</v>
+      </c>
       <c r="J165">
         <v>0.95</v>
       </c>
@@ -4874,6 +5443,12 @@
       <c r="F166">
         <v>100</v>
       </c>
+      <c r="H166" s="6">
+        <v>19454136.919473439</v>
+      </c>
+      <c r="I166" t="s">
+        <v>128</v>
+      </c>
       <c r="J166">
         <v>0.85</v>
       </c>
@@ -4898,6 +5473,12 @@
       <c r="F167">
         <v>100</v>
       </c>
+      <c r="H167" s="6">
+        <v>30818038.0316668</v>
+      </c>
+      <c r="I167" t="s">
+        <v>129</v>
+      </c>
       <c r="J167">
         <v>0.95</v>
       </c>
@@ -4922,6 +5503,12 @@
       <c r="F168">
         <v>100</v>
       </c>
+      <c r="H168" s="6">
+        <v>11276316.500760149</v>
+      </c>
+      <c r="I168" t="s">
+        <v>130</v>
+      </c>
       <c r="J168">
         <v>0.75</v>
       </c>
@@ -4946,6 +5533,12 @@
       <c r="F169">
         <v>100</v>
       </c>
+      <c r="H169" s="6">
+        <v>19275984.81214102</v>
+      </c>
+      <c r="I169" t="s">
+        <v>131</v>
+      </c>
       <c r="J169">
         <v>0.85</v>
       </c>
@@ -4970,6 +5563,12 @@
       <c r="F170">
         <v>100</v>
       </c>
+      <c r="H170" s="6">
+        <v>34069888.261721186</v>
+      </c>
+      <c r="I170" t="s">
+        <v>132</v>
+      </c>
       <c r="J170">
         <v>0.95</v>
       </c>
@@ -4994,6 +5593,12 @@
       <c r="F171">
         <v>100</v>
       </c>
+      <c r="H171" s="6">
+        <v>11741453.360821171</v>
+      </c>
+      <c r="I171" t="s">
+        <v>133</v>
+      </c>
       <c r="J171">
         <v>0.75</v>
       </c>
@@ -5018,6 +5623,12 @@
       <c r="F172">
         <v>100</v>
       </c>
+      <c r="H172" s="6">
+        <v>20430025.393949751</v>
+      </c>
+      <c r="I172" t="s">
+        <v>134</v>
+      </c>
       <c r="J172">
         <v>0.85</v>
       </c>
@@ -5042,6 +5653,12 @@
       <c r="F173">
         <v>100</v>
       </c>
+      <c r="H173" s="6">
+        <v>34772780.324305959</v>
+      </c>
+      <c r="I173" t="s">
+        <v>135</v>
+      </c>
       <c r="J173">
         <v>0.95</v>
       </c>
@@ -5065,6 +5682,12 @@
       <c r="F174">
         <v>50</v>
       </c>
+      <c r="H174" s="6">
+        <v>76778363.844701573</v>
+      </c>
+      <c r="I174" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175">
@@ -5085,6 +5708,12 @@
       <c r="F175">
         <v>50</v>
       </c>
+      <c r="H175" s="6">
+        <v>85966582.933660746</v>
+      </c>
+      <c r="I175" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176">
@@ -5105,8 +5734,14 @@
       <c r="F176">
         <v>50</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H176" s="6">
+        <v>15567527.10985058</v>
+      </c>
+      <c r="I176" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>22</v>
       </c>
@@ -5125,8 +5760,11 @@
       <c r="F177">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H177" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>22</v>
       </c>
@@ -5145,8 +5783,14 @@
       <c r="F178">
         <v>50</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H178" s="6">
+        <v>13509591.876913689</v>
+      </c>
+      <c r="I178" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>22</v>
       </c>
@@ -5165,8 +5809,14 @@
       <c r="F179">
         <v>50</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H179" s="6">
+        <v>37748263.819171064</v>
+      </c>
+      <c r="I179" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>23</v>
       </c>
@@ -5185,8 +5835,14 @@
       <c r="F180">
         <v>50</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H180" s="6">
+        <v>53802579.97014533</v>
+      </c>
+      <c r="I180" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>23</v>
       </c>
@@ -5205,8 +5861,11 @@
       <c r="F181">
         <v>50</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H181" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>23</v>
       </c>
@@ -5225,8 +5884,14 @@
       <c r="F182">
         <v>50</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H182" s="6">
+        <v>8468590.7782410998</v>
+      </c>
+      <c r="I182" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>23</v>
       </c>
@@ -5245,8 +5910,14 @@
       <c r="F183">
         <v>50</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H183" s="6">
+        <v>27779164.83330936</v>
+      </c>
+      <c r="I183" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>23</v>
       </c>
@@ -5265,8 +5936,14 @@
       <c r="F184">
         <v>50</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H184" s="6">
+        <v>61910396.683010727</v>
+      </c>
+      <c r="I184" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>23</v>
       </c>
@@ -5285,8 +5962,11 @@
       <c r="F185">
         <v>50</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H185" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>24</v>
       </c>
@@ -5305,8 +5985,14 @@
       <c r="F186">
         <v>50</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H186" s="6">
+        <v>13349984.583255161</v>
+      </c>
+      <c r="I186" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>24</v>
       </c>
@@ -5325,8 +6011,14 @@
       <c r="F187">
         <v>50</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H187" s="6">
+        <v>31750575.624388061</v>
+      </c>
+      <c r="I187" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>24</v>
       </c>
@@ -5345,8 +6037,14 @@
       <c r="F188">
         <v>50</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H188" s="6">
+        <v>63477767.905813843</v>
+      </c>
+      <c r="I188" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>24</v>
       </c>
@@ -5365,8 +6063,11 @@
       <c r="F189">
         <v>50</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H189" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>24</v>
       </c>
@@ -5385,8 +6086,14 @@
       <c r="F190">
         <v>50</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H190" s="6">
+        <v>10265972.31047645</v>
+      </c>
+      <c r="I190" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>24</v>
       </c>
@@ -5405,8 +6112,14 @@
       <c r="F191">
         <v>50</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H191" s="6">
+        <v>25527911.948817331</v>
+      </c>
+      <c r="I191" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>25</v>
       </c>
@@ -5425,8 +6138,14 @@
       <c r="F192">
         <v>50</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H192" s="6">
+        <v>53211673.733015843</v>
+      </c>
+      <c r="I192" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>25</v>
       </c>
@@ -5445,8 +6164,14 @@
       <c r="F193">
         <v>50</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H193" s="6">
+        <v>71398591.331557184</v>
+      </c>
+      <c r="I193" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>25</v>
       </c>
@@ -5465,8 +6190,14 @@
       <c r="F194">
         <v>50</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H194" s="6">
+        <v>34856499.192699827</v>
+      </c>
+      <c r="I194" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>25</v>
       </c>
@@ -5485,8 +6216,11 @@
       <c r="F195">
         <v>50</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H195" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>25</v>
       </c>
@@ -5505,8 +6239,14 @@
       <c r="F196">
         <v>50</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H196" s="6">
+        <v>28619398.20177082</v>
+      </c>
+      <c r="I196" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>25</v>
       </c>
@@ -5525,8 +6265,14 @@
       <c r="F197">
         <v>50</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H197" s="6">
+        <v>50140801.225010842</v>
+      </c>
+      <c r="I197" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>26</v>
       </c>
@@ -5545,8 +6291,14 @@
       <c r="F198">
         <v>50</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H198" s="6">
+        <v>65141922.28507562</v>
+      </c>
+      <c r="I198" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>26</v>
       </c>
@@ -5565,8 +6317,14 @@
       <c r="F199">
         <v>50</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H199" s="6">
+        <v>73463236.693587929</v>
+      </c>
+      <c r="I199" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>26</v>
       </c>
@@ -5585,8 +6343,11 @@
       <c r="F200">
         <v>50</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H200" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>26</v>
       </c>
@@ -5605,8 +6366,14 @@
       <c r="F201">
         <v>50</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H201" s="6">
+        <v>4132792.4795489698</v>
+      </c>
+      <c r="I201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>26</v>
       </c>
@@ -5625,8 +6392,14 @@
       <c r="F202">
         <v>50</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H202" s="6">
+        <v>19546809.690115951</v>
+      </c>
+      <c r="I202" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>26</v>
       </c>
@@ -5645,8 +6418,14 @@
       <c r="F203">
         <v>50</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H203" s="6">
+        <v>39632459.988039941</v>
+      </c>
+      <c r="I203" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>27</v>
       </c>
@@ -5665,8 +6444,14 @@
       <c r="F204">
         <v>50</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H204" s="6">
+        <v>53799967.911818057</v>
+      </c>
+      <c r="I204" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>27</v>
       </c>
@@ -5685,8 +6470,14 @@
       <c r="F205">
         <v>50</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H205" s="6">
+        <v>59117119.849288329</v>
+      </c>
+      <c r="I205" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>27</v>
       </c>
@@ -5705,8 +6496,14 @@
       <c r="F206">
         <v>50</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H206" s="6">
+        <v>68585347.672732651</v>
+      </c>
+      <c r="I206" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>27</v>
       </c>
@@ -5727,7 +6524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>27</v>
       </c>
@@ -5747,7 +6544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>27</v>
       </c>
@@ -5767,7 +6564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>28</v>
       </c>
@@ -5788,7 +6585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>28</v>
       </c>
@@ -5808,7 +6605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>28</v>
       </c>
@@ -5828,7 +6625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>28</v>
       </c>
@@ -5848,7 +6645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>28</v>
       </c>
@@ -5868,7 +6665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>28</v>
       </c>
@@ -5888,7 +6685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>29</v>
       </c>
@@ -5907,8 +6704,14 @@
       <c r="F216">
         <v>50</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H216" s="6">
+        <v>35294023.760408834</v>
+      </c>
+      <c r="I216" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>29</v>
       </c>
@@ -5927,8 +6730,14 @@
       <c r="F217">
         <v>50</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H217" s="6">
+        <v>52934930.11015965</v>
+      </c>
+      <c r="I217" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>29</v>
       </c>
@@ -5947,8 +6756,14 @@
       <c r="F218">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H218" s="6">
+        <v>7470797.2932163496</v>
+      </c>
+      <c r="I218" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>29</v>
       </c>
@@ -5967,8 +6782,14 @@
       <c r="F219">
         <v>50</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H219" s="6">
+        <v>16190325.00615898</v>
+      </c>
+      <c r="I219" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>29</v>
       </c>
@@ -5987,8 +6808,14 @@
       <c r="F220">
         <v>50</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H220" s="6">
+        <v>47608173.425448358</v>
+      </c>
+      <c r="I220" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>29</v>
       </c>
@@ -6007,8 +6834,14 @@
       <c r="F221">
         <v>50</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H221" s="6">
+        <v>65121501.283443421</v>
+      </c>
+      <c r="I221" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>30</v>
       </c>
@@ -6030,8 +6863,14 @@
       <c r="G222">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H222" s="6">
+        <v>9372508.7147962097</v>
+      </c>
+      <c r="I222" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>30</v>
       </c>
@@ -6053,8 +6892,14 @@
       <c r="G223">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H223" s="6">
+        <v>9741142.4472380206</v>
+      </c>
+      <c r="I223" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>30</v>
       </c>
@@ -6076,8 +6921,14 @@
       <c r="G224">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224" s="6">
+        <v>8323901.8977951799</v>
+      </c>
+      <c r="I224" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>30</v>
       </c>
@@ -6099,8 +6950,14 @@
       <c r="G225">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225" s="6">
+        <v>8858572.8807273507</v>
+      </c>
+      <c r="I225" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>30</v>
       </c>
@@ -6122,8 +6979,14 @@
       <c r="G226">
         <v>2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226" s="6">
+        <v>10863102.578673471</v>
+      </c>
+      <c r="I226" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>30</v>
       </c>
@@ -6145,8 +7008,14 @@
       <c r="G227">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227" s="6">
+        <v>10048243.7396656</v>
+      </c>
+      <c r="I227" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>31</v>
       </c>
@@ -6168,8 +7037,14 @@
       <c r="G228">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H228" s="6">
+        <v>10184764.78628446</v>
+      </c>
+      <c r="I228" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>31</v>
       </c>
@@ -6191,8 +7066,14 @@
       <c r="G229">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H229" s="6">
+        <v>10307223.268590551</v>
+      </c>
+      <c r="I229" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>31</v>
       </c>
@@ -6214,8 +7095,14 @@
       <c r="G230">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H230" s="6">
+        <v>9057466.7966900896</v>
+      </c>
+      <c r="I230" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>31</v>
       </c>
@@ -6237,8 +7124,14 @@
       <c r="G231">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H231" s="6">
+        <v>8472921.6958527192</v>
+      </c>
+      <c r="I231" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>31</v>
       </c>
@@ -6260,8 +7153,14 @@
       <c r="G232">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H232" s="6">
+        <v>10568922.55516365</v>
+      </c>
+      <c r="I232" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>31</v>
       </c>
@@ -6283,8 +7182,14 @@
       <c r="G233">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H233" s="6">
+        <v>9738465.3699126206</v>
+      </c>
+      <c r="I233" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>32</v>
       </c>
@@ -6306,8 +7211,14 @@
       <c r="G234">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H234" s="6">
+        <v>167790.83309032</v>
+      </c>
+      <c r="I234" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>32</v>
       </c>
@@ -6329,8 +7240,14 @@
       <c r="G235">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H235" s="6">
+        <v>8597136.4440517798</v>
+      </c>
+      <c r="I235" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>32</v>
       </c>
@@ -6352,8 +7269,14 @@
       <c r="G236">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H236" s="6">
+        <v>7472319.7402057499</v>
+      </c>
+      <c r="I236" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>32</v>
       </c>
@@ -6375,8 +7298,14 @@
       <c r="G237">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H237" s="6">
+        <v>9088296.7188215703</v>
+      </c>
+      <c r="I237" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>32</v>
       </c>
@@ -6398,8 +7327,14 @@
       <c r="G238">
         <v>8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H238" s="6">
+        <v>8162104.4800743395</v>
+      </c>
+      <c r="I238" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>33</v>
       </c>
@@ -6421,8 +7356,11 @@
       <c r="G239">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H239" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>33</v>
       </c>
@@ -6444,8 +7382,11 @@
       <c r="G240">
         <v>9.4999999999999998E-3</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H240" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>33</v>
       </c>
@@ -6467,8 +7408,11 @@
       <c r="G241">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H241" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>33</v>
       </c>
@@ -6490,8 +7434,14 @@
       <c r="G242">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H242" s="6">
+        <v>541434.57420349994</v>
+      </c>
+      <c r="I242" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>33</v>
       </c>
@@ -6513,8 +7463,11 @@
       <c r="G243">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H243" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>33</v>
       </c>
@@ -6535,6 +7488,12 @@
       </c>
       <c r="G244">
         <v>1.15E-2</v>
+      </c>
+      <c r="H244" s="6">
+        <v>610615.52719099994</v>
+      </c>
+      <c r="I244" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
